--- a/ewhr/data/list_of_tables_for_summary.xlsx
+++ b/ewhr/data/list_of_tables_for_summary.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gauden/Documents/dev/ewhr/ewhr/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="16275" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="120">
   <si>
     <t>fig_id</t>
   </si>
@@ -22,9 +32,6 @@
     <t>fig_no</t>
   </si>
   <si>
-    <t>draft_title</t>
-  </si>
-  <si>
     <t>draft_page_no</t>
   </si>
   <si>
@@ -49,42 +56,15 @@
     <t>source_accessed</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Figure 2. Healthy life at birth and number of years spent in ill-health for women, 2012</t>
-  </si>
-  <si>
     <t>Beyond the mortality advantage</t>
   </si>
   <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>number of years</t>
-  </si>
-  <si>
-    <t>WHO. Life expectancy. Data by country [web site].</t>
-  </si>
-  <si>
     <t>http://apps.who.int/gho/data/node.main.3?lang=en</t>
   </si>
   <si>
     <t>Accessed 28 March 2015</t>
   </si>
   <si>
-    <t>Figure 3. Female life expectancy at birth (2013) by estimated Gross National Income (GNI) PPP$ per capita (2011)</t>
-  </si>
-  <si>
-    <t>Correlation between life expectancy and gross National Income (GNI)</t>
-  </si>
-  <si>
-    <t>as in doc</t>
-  </si>
-  <si>
-    <t>European Health for All Database (HFA, DB), WHO/Europe</t>
-  </si>
-  <si>
     <t>http://data.euro.who.int/hfadb/</t>
   </si>
   <si>
@@ -94,57 +74,21 @@
     <t>This source has changed. In the Draft Report it was UNDP data. Please note that the currency is US$</t>
   </si>
   <si>
-    <t>Figure 4. Mortality and disease burden (DALYs) in females by sub-region, age group and broad causes, 2010</t>
-  </si>
-  <si>
-    <t>sub regions</t>
-  </si>
-  <si>
-    <t>deaths and DALYs</t>
-  </si>
-  <si>
-    <t>IHME 2010</t>
-  </si>
-  <si>
     <t>http://vizhub.healthdata.org/irank/arrow.php</t>
   </si>
   <si>
-    <t>Figure 5. Global Gender Gap for 47 Member States of the WHO European Region 2014</t>
-  </si>
-  <si>
-    <t>The gradient of gender inequality in Europe</t>
-  </si>
-  <si>
     <t xml:space="preserve">Score </t>
   </si>
   <si>
-    <t>World Economic Forum (WEF)</t>
-  </si>
-  <si>
     <t>http://reports.weforum.org/global-gender-gap-report-2014/rankings/</t>
   </si>
   <si>
-    <t>Figure 8. Labour Force participation rate (%) 2000-2012, males and females</t>
-  </si>
-  <si>
-    <t>Are we maximazing the education gains?</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
     <t>United Nations Development Programme (UNDP)</t>
   </si>
   <si>
     <t>http://hdr.undp.org/en/content/labour-force-participation-rate-female-male-ratio</t>
   </si>
   <si>
-    <t>Figure 10. Gender pay gap (%) in selected Member States, 2013</t>
-  </si>
-  <si>
-    <t>Unequal pay for women in all countries</t>
-  </si>
-  <si>
     <t>Eurostat</t>
   </si>
   <si>
@@ -157,18 +101,9 @@
     <t>Greece and Ireland do not have data for 2013. Iceland, Norway and Switzerland are non-EU</t>
   </si>
   <si>
-    <t xml:space="preserve">Figure 13. Probability of dying (per 1000) before 5 years for girls and boys, WHO European Region, 2000-2012. </t>
-  </si>
-  <si>
     <t>Accessed 22 April 2015</t>
   </si>
   <si>
-    <t>Figure 15. Pre-primary School Participation for girls 2009-2012</t>
-  </si>
-  <si>
-    <t>Girls opportunities for early development</t>
-  </si>
-  <si>
     <t>http://www.data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables</t>
   </si>
   <si>
@@ -178,21 +113,12 @@
     <t>Wrong reference in the Draft Report to 2011 Unicef report instead of the 2015</t>
   </si>
   <si>
-    <t>Figure 16a. The Risk of poverty and social exclusion for girls age less than 6 years in the EU, 2013</t>
-  </si>
-  <si>
     <t>http://ec.europa.eu/eurostat/web/products-datasets/-/t2020_50</t>
   </si>
   <si>
     <t>Accessed 23 June 2015</t>
   </si>
   <si>
-    <t>Figure 19. Prevalence of current smoked tobacco use among adolescents girls age 13-15 years in selected countries</t>
-  </si>
-  <si>
-    <t>prevalence</t>
-  </si>
-  <si>
     <t>Global Youth Tobacco Survey (GYTS)</t>
   </si>
   <si>
@@ -202,12 +128,6 @@
     <t>Accessed 30 June 2015</t>
   </si>
   <si>
-    <t>Figure 21. Adolescents birth rates (2010-2015) by means years of schooling (2002-2012)</t>
-  </si>
-  <si>
-    <t>Correlation between schooling and adolescents birth rate</t>
-  </si>
-  <si>
     <t>http://hdr.undp.org/en/content/table-4-gender-inequality-index</t>
   </si>
   <si>
@@ -217,24 +137,15 @@
     <t>No access date in the original excel or draft document. Today's date</t>
   </si>
   <si>
-    <t>Figure 22. Differences in adolescents in attitudes towards wife beating, 2009-2013</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://www.unicef.org/sowc2011/fullreport.php </t>
   </si>
   <si>
     <t>Accessed 31 May 2015</t>
   </si>
   <si>
-    <t>Figure 24. Differences in bad-very bad self-reported health among women aged 18-44 years by highest and lowest equivalised income quintiles in selected EU Member States, 2013</t>
-  </si>
-  <si>
     <t>High income women in Europe report better health</t>
   </si>
   <si>
-    <t>Eurostat (hlth_silc_02)</t>
-  </si>
-  <si>
     <t>http://ec.europa.eu/eurostat/web/products-datasets/-/hlth_silc_10</t>
   </si>
   <si>
@@ -244,42 +155,18 @@
     <t>Problems with the original link. I have changed it</t>
   </si>
   <si>
-    <t xml:space="preserve">Figure 27c. Unmet needs for family planning, total, percentage (last year available) </t>
-  </si>
-  <si>
-    <t>UN Statistics</t>
-  </si>
-  <si>
     <t>http://unstats.un.org/unsd/mdg/SeriesDetail.aspx?srid=764&amp;crid=</t>
   </si>
   <si>
     <t>Accessed 26 May 2015</t>
   </si>
   <si>
-    <t>Figure 30. Maternal mortality ratio compared to the female population with at least some secondary education (2005-2012)</t>
-  </si>
-  <si>
     <t>Accessed 16 March 2015</t>
   </si>
   <si>
     <t>Will wait to change until you have tried the new version</t>
   </si>
   <si>
-    <t>Figure 34. Differences among women aged 65+ in EU countries for self-rated health very good-good by wealth quintiles, 2013</t>
-  </si>
-  <si>
-    <t>The impact of wealth on the health of older women</t>
-  </si>
-  <si>
-    <t>Figure 37. Long-term pyschological consequences of violence as a result of physical and sexual violence by a partner reported by women 60+ years in the EU</t>
-  </si>
-  <si>
-    <t>Long-term pyschological consequences of intimate partner violence reported by women 60+ years in the EU</t>
-  </si>
-  <si>
-    <t>number of responses</t>
-  </si>
-  <si>
     <t>European Union Agency for Fundamental Rights (FRA)</t>
   </si>
   <si>
@@ -292,28 +179,228 @@
     <t>I have inserted the date you accessed the web</t>
   </si>
   <si>
-    <t>Figure 38. Differences among older women by age in poverty risk for 2013</t>
-  </si>
-  <si>
-    <t>Increased risk of poverty for older women</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>X and Y lables are as they should be in the graphs as per current draft. However, you will probably change them if presenting the data in a different form, as with the example you shown as on violence Fig 37.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unicef 2015 State of the World's Children </t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Gender gap in selected European countries</t>
+  </si>
+  <si>
+    <t>Gender pay gap in 29 countries in Europe</t>
+  </si>
+  <si>
+    <t>Probability of dying before 5 years</t>
+  </si>
+  <si>
+    <t>Opportunity for early developments for girls</t>
+  </si>
+  <si>
+    <t>Girls at risk of poverty and social exclusion</t>
+  </si>
+  <si>
+    <t>Tobacco smoking among adolescent girls</t>
+  </si>
+  <si>
+    <t>Correlation between schooling and adolescent birth rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolescents accepting  wife-beating </t>
+  </si>
+  <si>
+    <t>Unmet needs for family planning</t>
+  </si>
+  <si>
+    <t>Emotional consequences of serious physical or sexual violence since the age of 15</t>
+  </si>
+  <si>
+    <t>Poverty among older women</t>
+  </si>
+  <si>
+    <t>Female life expectancy by Gross National Income</t>
+  </si>
+  <si>
+    <t>Broad Causes of Morbidity, Mortality and Disease Burden for Women by sub-region, age group and broad causes (2010)</t>
+  </si>
+  <si>
+    <t>Do European countries maximize the education gain?</t>
+  </si>
+  <si>
+    <t>Risk of maternal mortality by secondary education (2005-2012)</t>
+  </si>
+  <si>
+    <t>Self-perceived health by income in older women</t>
+  </si>
+  <si>
+    <t>Healthy life at birth and number of years spent in ill-health for women (2012)</t>
+  </si>
+  <si>
+    <t>Female life expectancy at birth (2013) by estimated Gross National Income (GNI) PPP$ per capita (2011)</t>
+  </si>
+  <si>
+    <t>Mortality and disease burden (DALYs) in females by sub-region, age group and broad causes (2010)</t>
+  </si>
+  <si>
+    <t>Global Gender Gap for 47 Member States of the WHO European Region (2014)</t>
+  </si>
+  <si>
+    <t>Labour Force participation rate (%) for males and females (2000-2012)</t>
+  </si>
+  <si>
+    <t>Gender pay gap (%) in selected Member States (2013)</t>
+  </si>
+  <si>
+    <t>Probability of dying (per 1000) before 5 years for girls and boys, WHO European Region (2000-2012)</t>
+  </si>
+  <si>
+    <t>Pre-primary School Participation for girls (2000-2012)</t>
+  </si>
+  <si>
+    <t>The Risk of poverty and social exclusion for girls age less than 6 years in the EU (2013)</t>
+  </si>
+  <si>
+    <t>Prevalence of current smoked tobacco use among adolescents girls age 13-15 years in selected countries</t>
+  </si>
+  <si>
+    <t>Adolescents birth rates (2010-2015) by means years of schooling (2002-2012)</t>
+  </si>
+  <si>
+    <t>Differences in adolescents in attitudes towards wife beating (2009-2013)</t>
+  </si>
+  <si>
+    <t>Differences in bad-very bad self-reported health among women aged 18-44 years by highest and lowest equivalised income quintiles in selected EU Member States (2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unmet needs for family planning, total, percentage (last year available) </t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio compared to the female population with at least some secondary education (2005-2012)</t>
+  </si>
+  <si>
+    <t>Differences among women aged 65+ in EU countries for self-rated health very good-good by wealth quintiles (2013)</t>
+  </si>
+  <si>
+    <t>Long-term pyschological consequences of violence as a result of physical and sexual violence by a partner reported by women 60+ years in the EU</t>
+  </si>
+  <si>
+    <t>Differences among older women by age in poverty risk (2013)</t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>Sub regions</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Prevalence</t>
+  </si>
+  <si>
+    <t>Number of responses</t>
+  </si>
+  <si>
+    <t>Number of years</t>
+  </si>
+  <si>
+    <t>Deaths and DALYs</t>
+  </si>
+  <si>
+    <t>hovermode</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>mkd</t>
+  </si>
+  <si>
+    <t>footnotes</t>
+  </si>
+  <si>
+    <t>Data on male attitudes not available for Georgia, Montenegro, Tajikistan, MKD and Turkey.
+Data refer to the most recent year available during the period specified in the column heading.</t>
+  </si>
+  <si>
+    <t>United Nations Statistics Division.</t>
+  </si>
+  <si>
+    <t>WHO  Global health observatory.</t>
+  </si>
+  <si>
+    <t>WHO/Europe Health for All Database</t>
+  </si>
+  <si>
+    <t>World Economic Forum (WEF). The Global Gender Gap Report (2014)</t>
+  </si>
+  <si>
+    <t>Unicef 2015 State of the World's Children  (2015)</t>
+  </si>
+  <si>
+    <t>Unicef 2015 State of the World's Children  (2011)</t>
+  </si>
+  <si>
+    <t>Institute of Health Metrics and Evaluation</t>
+  </si>
+  <si>
+    <t>isabel_comments</t>
+  </si>
+  <si>
+    <t>I have repeated the tile in Caption, I suggest to find more catchy title for the figure and use the present title as subheading</t>
+  </si>
+  <si>
+    <t>This figure is not included in the overview. It is referred to several times in the text.Will you produce it?</t>
+  </si>
+  <si>
+    <t>My suggestion for having the subtitle as main title</t>
+  </si>
+  <si>
+    <t>Are you sure you do not want to use HBSC data here, they cover 33 countries</t>
+  </si>
+  <si>
+    <t>I have suggested changed title. The number  for MKD doesn't seem to be included in the figure. Following comment was included, but I am not sure it should be enclosed as it stands. I have made it a foot mote.  Data on male attitudes not available for Georgia, Montenegro, Tajikistan, MKD and Turkey most likely because the question is not asked of males.</t>
+  </si>
+  <si>
+    <t>Suggest to change title to Higher income, better health.</t>
+  </si>
+  <si>
+    <t>No additional title</t>
+  </si>
+  <si>
+    <t>I am looking in more details into this one. According to the website the age of the reporting women are between 19 and 60+, so there seems to be some misunderstanding it the text.</t>
+  </si>
+  <si>
+    <t>Title change proposed</t>
+  </si>
+  <si>
+    <t>vivian_comments</t>
+  </si>
+  <si>
+    <t>Unique identifying number in this database</t>
+  </si>
+  <si>
+    <t>After re-arrangement in the text, this is the Figure Number in the published document</t>
+  </si>
+  <si>
+    <t>plot_width</t>
+  </si>
+  <si>
+    <t>plot_height</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -447,6 +534,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -747,51 +849,59 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -890,7 +1000,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -925,7 +1035,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1134,645 +1244,988 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="5" customWidth="1"/>
+    <col min="4" max="4" width="53.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="85.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="82" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="3">
+        <v>780</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M2" s="3">
+        <v>34</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="3">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="3">
+        <v>780</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M3" s="3">
+        <v>39</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="3">
+        <v>780</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M4" s="3">
+        <v>41</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3">
+        <v>15</v>
+      </c>
+      <c r="G5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3">
+        <v>780</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M5" s="3">
+        <v>44</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="3">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="3">
+        <v>780</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M6" s="3">
+        <v>62</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="3">
+        <v>24</v>
+      </c>
+      <c r="G7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="3">
+        <v>780</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M7" s="3">
+        <v>72</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="3">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="3">
+        <v>780</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M8" s="3">
+        <v>108</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B9" s="3">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="3">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="3">
+        <v>780</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M9" s="3">
+        <v>121</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="3">
+        <v>41</v>
+      </c>
+      <c r="G10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="3">
+        <v>780</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M10" s="3">
+        <v>80</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B11" s="3">
         <v>11</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="3">
+        <v>780</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M11" s="3">
+        <v>186</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="3">
+        <v>56</v>
+      </c>
+      <c r="G12" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="3">
+        <v>780</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M12" s="3">
+        <v>203</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="3">
+        <v>57</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="3">
+        <v>780</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M13" s="3">
+        <v>121</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3">
+        <v>63</v>
+      </c>
+      <c r="G14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="3">
+        <v>780</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M14" s="3">
+        <v>235</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B15" s="3">
         <v>15</v>
       </c>
-      <c r="H2">
+      <c r="C15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="3">
+        <v>73</v>
+      </c>
+      <c r="G15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="3">
+        <v>780</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M15" s="3">
+        <v>278</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="3">
+        <v>78</v>
+      </c>
+      <c r="G16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="3">
+        <v>780</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M16" s="8">
+        <v>39203</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="3">
+        <v>89</v>
+      </c>
+      <c r="G17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="3">
+        <v>780</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M17" s="3">
+        <v>235</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B18" s="3">
         <v>18</v>
       </c>
+      <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="3">
+        <v>93</v>
+      </c>
+      <c r="G18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="3">
+        <v>780</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M18" s="3">
+        <v>296</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="3">
+        <v>97</v>
+      </c>
+      <c r="G19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="3">
+        <v>780</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1262</v>
+      </c>
+      <c r="M19" s="3">
+        <v>80</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
+      <c r="O19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6">
-        <v>62</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8">
-        <v>108</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9">
-        <v>121</v>
-      </c>
-      <c r="I9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <v>80</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11">
-        <v>186</v>
-      </c>
-      <c r="I11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12">
-        <v>203</v>
-      </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13">
-        <v>121</v>
-      </c>
-      <c r="I13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14">
-        <v>235</v>
-      </c>
-      <c r="I14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15">
-        <v>278</v>
-      </c>
-      <c r="I15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16">
-        <v>78</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="1">
-        <v>39203</v>
-      </c>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17">
-        <v>89</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17">
-        <v>235</v>
-      </c>
-      <c r="I17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18">
-        <v>93</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18">
-        <v>296</v>
-      </c>
-      <c r="I18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" t="s">
-        <v>90</v>
-      </c>
-      <c r="L18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19">
-        <v>97</v>
-      </c>
-      <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>95</v>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/ewhr/data/list_of_tables_for_summary.xlsx
+++ b/ewhr/data/list_of_tables_for_summary.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="152">
   <si>
     <t>fig_id</t>
   </si>
@@ -77,9 +78,6 @@
     <t>http://vizhub.healthdata.org/irank/arrow.php</t>
   </si>
   <si>
-    <t xml:space="preserve">Score </t>
-  </si>
-  <si>
     <t>http://reports.weforum.org/global-gender-gap-report-2014/rankings/</t>
   </si>
   <si>
@@ -92,9 +90,6 @@
     <t>Eurostat</t>
   </si>
   <si>
-    <t>http://ec.europa.eu/eurostat/tgm/table.do?tab=table&amp;init=1&amp;plugin=1&amp;language=en&amp;pcode=tsdsc340</t>
-  </si>
-  <si>
     <t>Accessed 16 June 2015</t>
   </si>
   <si>
@@ -122,9 +117,6 @@
     <t>Global Youth Tobacco Survey (GYTS)</t>
   </si>
   <si>
-    <t>http://nccd.cdc.gov/gtssdata/Ancillary/Documentation.aspx?SUID=1&amp;DOCT=1</t>
-  </si>
-  <si>
     <t>Accessed 30 June 2015</t>
   </si>
   <si>
@@ -233,9 +225,6 @@
     <t>Healthy life at birth and number of years spent in ill-health for women (2012)</t>
   </si>
   <si>
-    <t>Female life expectancy at birth (2013) by estimated Gross National Income (GNI) PPP$ per capita (2011)</t>
-  </si>
-  <si>
     <t>Mortality and disease burden (DALYs) in females by sub-region, age group and broad causes (2010)</t>
   </si>
   <si>
@@ -248,27 +237,12 @@
     <t>Gender pay gap (%) in selected Member States (2013)</t>
   </si>
   <si>
-    <t>Probability of dying (per 1000) before 5 years for girls and boys, WHO European Region (2000-2012)</t>
-  </si>
-  <si>
     <t>Pre-primary School Participation for girls (2000-2012)</t>
   </si>
   <si>
-    <t>The Risk of poverty and social exclusion for girls age less than 6 years in the EU (2013)</t>
-  </si>
-  <si>
-    <t>Prevalence of current smoked tobacco use among adolescents girls age 13-15 years in selected countries</t>
-  </si>
-  <si>
-    <t>Adolescents birth rates (2010-2015) by means years of schooling (2002-2012)</t>
-  </si>
-  <si>
     <t>Differences in adolescents in attitudes towards wife beating (2009-2013)</t>
   </si>
   <si>
-    <t>Differences in bad-very bad self-reported health among women aged 18-44 years by highest and lowest equivalised income quintiles in selected EU Member States (2013)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unmet needs for family planning, total, percentage (last year available) </t>
   </si>
   <si>
@@ -291,9 +265,6 @@
   </si>
   <si>
     <t>Percentage</t>
-  </si>
-  <si>
-    <t>Prevalence</t>
   </si>
   <si>
     <t>Number of responses</t>
@@ -385,13 +356,139 @@
   </si>
   <si>
     <t>plot_height</t>
+  </si>
+  <si>
+    <t>Insert standard plot properties code</t>
+  </si>
+  <si>
+    <t>paste plot width constant</t>
+  </si>
+  <si>
+    <t>paste plot height</t>
+  </si>
+  <si>
+    <t>adjust vertical or horizontal orientation</t>
+  </si>
+  <si>
+    <t>insert hovermode property</t>
+  </si>
+  <si>
+    <t>adjust hovermode property</t>
+  </si>
+  <si>
+    <t>check fig_no</t>
+  </si>
+  <si>
+    <t>check fig_id</t>
+  </si>
+  <si>
+    <t>check x_label</t>
+  </si>
+  <si>
+    <t>check y_label</t>
+  </si>
+  <si>
+    <t>adjust width and height</t>
+  </si>
+  <si>
+    <t>check legend (hide or re-position)</t>
+  </si>
+  <si>
+    <t>check source label</t>
+  </si>
+  <si>
+    <t>check source link</t>
+  </si>
+  <si>
+    <t>check date accessed for source</t>
+  </si>
+  <si>
+    <t>check footnotes</t>
+  </si>
+  <si>
+    <t>check caption</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>notebook</t>
+  </si>
+  <si>
+    <t>closest</t>
+  </si>
+  <si>
+    <t>GNI per capita (USD, at PPP)</t>
+  </si>
+  <si>
+    <t>Female Life Expectancy (Years)</t>
+  </si>
+  <si>
+    <t>Female life expectancy at birth (2013) by estimated GNI PPP$ per capita (2011)</t>
+  </si>
+  <si>
+    <t>Score (0=Inequality / 1=Equality)</t>
+  </si>
+  <si>
+    <t>http://bit.ly/tsdsc340</t>
+  </si>
+  <si>
+    <t>The data for the following countries is provisional - Germany, Spain, France, Croatia, Luxembourg, Poland, and Finland.  The data for Romania is estimated.</t>
+  </si>
+  <si>
+    <t>This represents the difference between average gross hourly earnings of male paid employees and female paid employees as a percentage of gross hourly earnings of male paid employees.  The population consists of all paid employees in enterprises with 10 employees or more.</t>
+  </si>
+  <si>
+    <t>Probability of dying before 5 years per 1000 live births</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Rate per 1000, girls and boys, WHO European Region (2000-2012)</t>
+  </si>
+  <si>
+    <t>% of eligible population</t>
+  </si>
+  <si>
+    <t>Risk of poverty and social exclusion for girls age less than 6 years in the EU (2013)</t>
+  </si>
+  <si>
+    <t>http://1.usa.gov/1L02Ezu</t>
+  </si>
+  <si>
+    <t>Current smoked tobacco use, adolescents girls aged 13-15 years, in selected countries</t>
+  </si>
+  <si>
+    <t>Prevalence (%)</t>
+  </si>
+  <si>
+    <t>Mean years of schooling (female, 2002-2012)</t>
+  </si>
+  <si>
+    <t>Births per 1,000 women aged 15-19 (2010/2015)</t>
+  </si>
+  <si>
+    <t>Adolescents birth rates (2010-2015) by mean years of schooling (2002-2012)</t>
+  </si>
+  <si>
+    <t>Quintile 1 is the lowest equivalised income (lowest 20%) and Quintile 5 is the highest equivalised income. Data for the Czech Republic, Croatia, Serbia and UK(5th quintile only) is noted as having low reliability.</t>
+  </si>
+  <si>
+    <t>Percentage reporting bad or very-bad health (%)</t>
+  </si>
+  <si>
+    <t>Self-reported health, women aged 18-44, by high and low income quintiles (2013)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,14 +637,28 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -891,17 +1002,26 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -949,6 +1069,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFD579"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1244,43 +1369,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47" style="4" customWidth="1"/>
     <col min="4" max="4" width="53.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="85.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="82" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.1640625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="13.5" style="3" customWidth="1"/>
+    <col min="6" max="7" width="13" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="52.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="85.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="82" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.1640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1288,944 +1413,2054 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="b">
+      <c r="H2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="3">
-        <v>780</v>
+        <v>77</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="L2" s="3">
-        <v>1262</v>
+        <v>960</v>
       </c>
       <c r="M2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="3">
         <v>34</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>63</v>
+      <c r="C3" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="E3" s="3">
         <v>11</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="b">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="I3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="3">
         <v>780</v>
       </c>
-      <c r="L3" s="3">
-        <v>1262</v>
-      </c>
       <c r="M3" s="3">
+        <v>900</v>
+      </c>
+      <c r="N3" s="3">
         <v>39</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>64</v>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3">
         <v>13</v>
       </c>
-      <c r="G4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="3">
+        <v>780</v>
+      </c>
+      <c r="M4" s="3">
+        <v>900</v>
+      </c>
+      <c r="N4" s="3">
+        <v>41</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="3">
-        <v>780</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1262</v>
-      </c>
-      <c r="M4" s="3">
-        <v>41</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>52</v>
+      <c r="C5" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E5" s="3">
         <v>15</v>
       </c>
-      <c r="G5" s="6" t="b">
+      <c r="H5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="3">
+        <v>960</v>
+      </c>
+      <c r="M5" s="3">
+        <v>780</v>
+      </c>
+      <c r="N5" s="3">
+        <v>44</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="3">
-        <v>780</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1262</v>
-      </c>
-      <c r="M5" s="3">
-        <v>44</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>65</v>
+      <c r="C6" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>94</v>
+      <c r="H6" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" s="3">
+        <v>128</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="3">
         <v>780</v>
       </c>
-      <c r="L6" s="3">
-        <v>1262</v>
-      </c>
       <c r="M6" s="3">
+        <v>900</v>
+      </c>
+      <c r="N6" s="3">
         <v>62</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>53</v>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3">
         <v>24</v>
       </c>
-      <c r="G7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>94</v>
+      <c r="F7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="3">
+        <v>79</v>
+      </c>
+      <c r="L7" s="3">
         <v>780</v>
       </c>
-      <c r="L7" s="3">
-        <v>1262</v>
-      </c>
       <c r="M7" s="3">
+        <v>900</v>
+      </c>
+      <c r="N7" s="3">
         <v>72</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>54</v>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="E8" s="3">
         <v>32</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="3">
         <v>780</v>
       </c>
-      <c r="L8" s="3">
-        <v>1262</v>
-      </c>
       <c r="M8" s="3">
+        <v>900</v>
+      </c>
+      <c r="N8" s="3">
         <v>108</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>55</v>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3">
         <v>39</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6" t="b">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="3">
+        <v>84</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" s="3">
         <v>780</v>
       </c>
-      <c r="L9" s="3">
-        <v>1262</v>
-      </c>
       <c r="M9" s="3">
+        <v>900</v>
+      </c>
+      <c r="N9" s="3">
         <v>121</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="O9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>56</v>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="E10" s="3">
         <v>41</v>
       </c>
-      <c r="G10" s="6" t="b">
+      <c r="H10" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="3">
+        <v>79</v>
+      </c>
+      <c r="L10" s="3">
         <v>780</v>
       </c>
-      <c r="L10" s="3">
-        <v>1262</v>
-      </c>
       <c r="M10" s="3">
+        <v>640</v>
+      </c>
+      <c r="N10" s="3">
         <v>80</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>29</v>
+      <c r="O10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>57</v>
+      <c r="C11" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6" t="b">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="3">
+        <v>145</v>
+      </c>
+      <c r="L11" s="3">
         <v>780</v>
       </c>
-      <c r="L11" s="3">
-        <v>1262</v>
-      </c>
       <c r="M11" s="3">
+        <v>640</v>
+      </c>
+      <c r="N11" s="3">
         <v>186</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="O11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>58</v>
+      <c r="C12" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="E12" s="3">
         <v>56</v>
       </c>
-      <c r="G12" s="6" t="b">
+      <c r="H12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12" s="3">
         <v>780</v>
       </c>
-      <c r="L12" s="3">
-        <v>1262</v>
-      </c>
       <c r="M12" s="3">
+        <v>780</v>
+      </c>
+      <c r="N12" s="3">
         <v>203</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O12" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>59</v>
+      <c r="C13" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E13" s="3">
         <v>57</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="6" t="b">
+      <c r="F13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I13" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K13" s="3">
+        <v>79</v>
+      </c>
+      <c r="L13" s="3">
         <v>780</v>
       </c>
-      <c r="L13" s="3">
-        <v>1262</v>
-      </c>
       <c r="M13" s="3">
+        <v>640</v>
+      </c>
+      <c r="N13" s="3">
         <v>121</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="O13" s="3" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>39</v>
+      <c r="C14" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="E14" s="3">
         <v>63</v>
       </c>
-      <c r="G14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>94</v>
+      <c r="F14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="3">
+        <v>150</v>
+      </c>
+      <c r="L14" s="3">
         <v>780</v>
       </c>
-      <c r="L14" s="3">
-        <v>1262</v>
-      </c>
       <c r="M14" s="3">
+        <v>640</v>
+      </c>
+      <c r="N14" s="3">
         <v>235</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="O14" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>15</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>60</v>
+      <c r="C15" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E15" s="3">
         <v>73</v>
       </c>
-      <c r="G15" s="6" t="b">
+      <c r="H15" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="3">
+        <v>780</v>
+      </c>
+      <c r="M15" s="3">
+        <v>900</v>
+      </c>
+      <c r="N15" s="3">
+        <v>278</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="3">
-        <v>780</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1262</v>
-      </c>
-      <c r="M15" s="3">
-        <v>278</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="P15" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>66</v>
+      <c r="C16" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E16" s="3">
         <v>78</v>
       </c>
-      <c r="G16" s="6" t="b">
+      <c r="H16" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="I16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="3">
         <v>780</v>
       </c>
-      <c r="L16" s="3">
-        <v>1262</v>
-      </c>
-      <c r="M16" s="8">
+      <c r="M16" s="3">
+        <v>900</v>
+      </c>
+      <c r="N16" s="7">
         <v>39203</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O16" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>67</v>
+      <c r="C17" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E17" s="3">
         <v>89</v>
       </c>
-      <c r="G17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>94</v>
+      <c r="H17" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="3">
+        <v>79</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="3">
         <v>780</v>
       </c>
-      <c r="L17" s="3">
-        <v>1262</v>
-      </c>
       <c r="M17" s="3">
+        <v>900</v>
+      </c>
+      <c r="N17" s="3">
         <v>235</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="O17" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>18</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>61</v>
+      <c r="C18" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E18" s="3">
         <v>93</v>
       </c>
-      <c r="G18" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>94</v>
+      <c r="H18" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="3">
+        <v>80</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="3">
         <v>780</v>
       </c>
-      <c r="L18" s="3">
-        <v>1262</v>
-      </c>
       <c r="M18" s="3">
+        <v>900</v>
+      </c>
+      <c r="N18" s="3">
         <v>296</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>62</v>
+      <c r="C19" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E19" s="3">
         <v>97</v>
       </c>
-      <c r="G19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>94</v>
+      <c r="H19" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="3">
+        <v>79</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="3">
         <v>780</v>
       </c>
-      <c r="L19" s="3">
-        <v>1262</v>
-      </c>
       <c r="M19" s="3">
+        <v>900</v>
+      </c>
+      <c r="N19" s="3">
         <v>80</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="O19" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>117</v>
+      <c r="C23" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:S19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="7.5" style="9" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" s="12">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12">
+        <v>12</v>
+      </c>
+      <c r="N1" s="12">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12">
+        <v>14</v>
+      </c>
+      <c r="P1" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="12">
+        <v>16</v>
+      </c>
+      <c r="R1" s="12">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0</v>
+      </c>
+      <c r="S3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0</v>
+      </c>
+      <c r="R10" s="11">
+        <v>0</v>
+      </c>
+      <c r="S10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12" s="11">
+        <v>0</v>
+      </c>
+      <c r="S12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11">
+        <v>0</v>
+      </c>
+      <c r="S14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>0</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0</v>
+      </c>
+      <c r="S15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>0</v>
+      </c>
+      <c r="R16" s="11">
+        <v>0</v>
+      </c>
+      <c r="S16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>0</v>
+      </c>
+      <c r="R18" s="11">
+        <v>0</v>
+      </c>
+      <c r="S18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <conditionalFormatting sqref="B2:S18">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/ewhr/data/list_of_tables_for_summary.xlsx
+++ b/ewhr/data/list_of_tables_for_summary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="153">
   <si>
     <t>fig_id</t>
   </si>
@@ -147,15 +147,9 @@
     <t>Problems with the original link. I have changed it</t>
   </si>
   <si>
-    <t>http://unstats.un.org/unsd/mdg/SeriesDetail.aspx?srid=764&amp;crid=</t>
-  </si>
-  <si>
     <t>Accessed 26 May 2015</t>
   </si>
   <si>
-    <t>Accessed 16 March 2015</t>
-  </si>
-  <si>
     <t>Will wait to change until you have tried the new version</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>Do European countries maximize the education gain?</t>
   </si>
   <si>
-    <t>Risk of maternal mortality by secondary education (2005-2012)</t>
-  </si>
-  <si>
     <t>Self-perceived health by income in older women</t>
   </si>
   <si>
@@ -244,9 +235,6 @@
   </si>
   <si>
     <t xml:space="preserve">Unmet needs for family planning, total, percentage (last year available) </t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio compared to the female population with at least some secondary education (2005-2012)</t>
   </si>
   <si>
     <t>Differences among women aged 65+ in EU countries for self-rated health very good-good by wealth quintiles (2013)</t>
@@ -482,6 +470,21 @@
   </si>
   <si>
     <t>Self-reported health, women aged 18-44, by high and low income quintiles (2013)</t>
+  </si>
+  <si>
+    <t>http://bit.ly/unmet_need_fp</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (deaths per 100,000 live births), 2010</t>
+  </si>
+  <si>
+    <t>Risk of maternal mortality by Schooling (2005-2012)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio compared to the mean number of years in school, females, 2005-2012</t>
+  </si>
+  <si>
+    <t>Mean Number of Years in School (Females)</t>
   </si>
 </sst>
 </file>
@@ -1371,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1399,13 +1402,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1414,16 +1417,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
@@ -1432,10 +1435,10 @@
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>6</v>
@@ -1450,10 +1453,10 @@
         <v>9</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1467,7 +1470,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
@@ -1476,13 +1479,13 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="L2" s="3">
         <v>960</v>
@@ -1494,7 +1497,7 @@
         <v>34</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>11</v>
@@ -1511,10 +1514,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E3" s="3">
         <v>11</v>
@@ -1525,13 +1528,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L3" s="3">
         <v>780</v>
@@ -1543,7 +1546,7 @@
         <v>39</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>13</v>
@@ -1555,7 +1558,7 @@
         <v>15</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1566,10 +1569,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3">
         <v>13</v>
@@ -1578,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="L4" s="3">
         <v>780</v>
@@ -1596,7 +1599,7 @@
         <v>41</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>16</v>
@@ -1605,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1616,10 +1619,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E5" s="3">
         <v>15</v>
@@ -1628,10 +1631,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L5" s="3">
         <v>960</v>
@@ -1643,7 +1646,7 @@
         <v>44</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>17</v>
@@ -1660,10 +1663,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3">
         <v>21</v>
@@ -1672,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L6" s="3">
         <v>780</v>
@@ -1696,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1707,28 +1710,28 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3">
         <v>24</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L7" s="3">
         <v>780</v>
@@ -1743,7 +1746,7 @@
         <v>20</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>21</v>
@@ -1760,10 +1763,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E8" s="3">
         <v>32</v>
@@ -1774,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L8" s="3">
         <v>780</v>
@@ -1792,7 +1795,7 @@
         <v>108</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>13</v>
@@ -1809,10 +1812,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3">
         <v>39</v>
@@ -1823,10 +1826,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L9" s="3">
         <v>780</v>
@@ -1838,7 +1841,7 @@
         <v>121</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>24</v>
@@ -1858,10 +1861,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E10" s="3">
         <v>41</v>
@@ -1870,10 +1873,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L10" s="3">
         <v>780</v>
@@ -1902,10 +1905,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -1916,10 +1919,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L11" s="3">
         <v>780</v>
@@ -1934,13 +1937,13 @@
         <v>29</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1951,10 +1954,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E12" s="3">
         <v>56</v>
@@ -1963,13 +1966,13 @@
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L12" s="3">
         <v>780</v>
@@ -2001,25 +2004,25 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3">
         <v>57</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H13" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L13" s="3">
         <v>780</v>
@@ -2031,7 +2034,7 @@
         <v>121</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>34</v>
@@ -2043,7 +2046,7 @@
         <v>26</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -2057,22 +2060,22 @@
         <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E14" s="3">
         <v>63</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H14" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L14" s="3">
         <v>780</v>
@@ -2096,7 +2099,7 @@
         <v>39</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -2107,10 +2110,10 @@
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3">
         <v>73</v>
@@ -2119,31 +2122,28 @@
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L15" s="3">
         <v>780</v>
       </c>
       <c r="M15" s="3">
-        <v>900</v>
+        <v>640</v>
       </c>
       <c r="N15" s="3">
         <v>278</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -2154,10 +2154,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="E16" s="3">
         <v>78</v>
@@ -2166,7 +2166,13 @@
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>84</v>
+        <v>126</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="L16" s="3">
         <v>780</v>
@@ -2177,20 +2183,12 @@
       <c r="N16" s="7">
         <v>39203</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="O16" s="3"/>
       <c r="R16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -2201,10 +2199,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E17" s="3">
         <v>89</v>
@@ -2213,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L17" s="3">
         <v>780</v>
@@ -2251,10 +2249,10 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E18" s="3">
         <v>93</v>
@@ -2263,13 +2261,13 @@
         <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L18" s="3">
         <v>780</v>
@@ -2281,19 +2279,19 @@
         <v>296</v>
       </c>
       <c r="O18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="S18" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -2304,10 +2302,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E19" s="3">
         <v>97</v>
@@ -2316,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L19" s="3">
         <v>780</v>
@@ -2343,7 +2341,7 @@
         <v>28</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -2351,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2359,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2445,7 @@
     </row>
     <row r="2" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B2" s="11">
         <v>0</v>
@@ -2506,7 +2504,7 @@
     </row>
     <row r="3" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B3" s="11">
         <v>0</v>
@@ -2565,7 +2563,7 @@
     </row>
     <row r="4" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B4" s="11">
         <v>0</v>
@@ -2624,7 +2622,7 @@
     </row>
     <row r="5" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" s="11">
         <v>0</v>
@@ -2683,7 +2681,7 @@
     </row>
     <row r="6" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" s="11">
         <v>0</v>
@@ -2742,7 +2740,7 @@
     </row>
     <row r="7" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B7" s="11">
         <v>0</v>
@@ -2801,7 +2799,7 @@
     </row>
     <row r="8" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
@@ -2860,7 +2858,7 @@
     </row>
     <row r="9" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" s="11">
         <v>0</v>
@@ -2919,7 +2917,7 @@
     </row>
     <row r="10" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
@@ -2978,7 +2976,7 @@
     </row>
     <row r="11" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B11" s="11">
         <v>0</v>
@@ -3037,7 +3035,7 @@
     </row>
     <row r="12" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B12" s="11">
         <v>0</v>
@@ -3096,7 +3094,7 @@
     </row>
     <row r="13" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B13" s="11">
         <v>0</v>
@@ -3155,7 +3153,7 @@
     </row>
     <row r="14" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B14" s="11">
         <v>0</v>
@@ -3214,7 +3212,7 @@
     </row>
     <row r="15" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B15" s="11">
         <v>0</v>
@@ -3273,7 +3271,7 @@
     </row>
     <row r="16" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
@@ -3332,7 +3330,7 @@
     </row>
     <row r="17" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B17" s="11">
         <v>0</v>
@@ -3391,7 +3389,7 @@
     </row>
     <row r="18" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B18" s="11">
         <v>0</v>

--- a/ewhr/data/list_of_tables_for_summary.xlsx
+++ b/ewhr/data/list_of_tables_for_summary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="154">
   <si>
     <t>fig_id</t>
   </si>
@@ -237,15 +237,6 @@
     <t xml:space="preserve">Unmet needs for family planning, total, percentage (last year available) </t>
   </si>
   <si>
-    <t>Differences among women aged 65+ in EU countries for self-rated health very good-good by wealth quintiles (2013)</t>
-  </si>
-  <si>
-    <t>Long-term pyschological consequences of violence as a result of physical and sexual violence by a partner reported by women 60+ years in the EU</t>
-  </si>
-  <si>
-    <t>Differences among older women by age in poverty risk (2013)</t>
-  </si>
-  <si>
     <t>Countries</t>
   </si>
   <si>
@@ -253,9 +244,6 @@
   </si>
   <si>
     <t>Percentage</t>
-  </si>
-  <si>
-    <t>Number of responses</t>
   </si>
   <si>
     <t>Number of years</t>
@@ -485,6 +473,21 @@
   </si>
   <si>
     <t>Mean Number of Years in School (Females)</t>
+  </si>
+  <si>
+    <t>Self-rated health among women aged 65+ in EU countries by wealth quintiles (2013)</t>
+  </si>
+  <si>
+    <t>The data for Croatia, Czech Republic, Iceland, and Lithuania are of low reliability.</t>
+  </si>
+  <si>
+    <t>Percentage of responses</t>
+  </si>
+  <si>
+    <t>Long-term pyschological consequences of partner violence reported by women 60+ years</t>
+  </si>
+  <si>
+    <t>Differences in poverty risk among older women by age (2013)</t>
   </si>
 </sst>
 </file>
@@ -1374,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1396,13 +1399,13 @@
     <col min="16" max="16" width="85.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="82" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="255.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1417,16 +1420,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
@@ -1435,10 +1438,10 @@
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>6</v>
@@ -1453,10 +1456,10 @@
         <v>9</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1479,13 +1482,13 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="L2" s="3">
         <v>960</v>
@@ -1497,7 +1500,7 @@
         <v>34</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>11</v>
@@ -1517,7 +1520,7 @@
         <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E3" s="3">
         <v>11</v>
@@ -1528,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L3" s="3">
         <v>780</v>
@@ -1546,7 +1549,7 @@
         <v>39</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>13</v>
@@ -1558,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1581,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="L4" s="3">
         <v>780</v>
@@ -1599,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>16</v>
@@ -1608,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1631,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L5" s="3">
         <v>960</v>
@@ -1646,7 +1649,7 @@
         <v>44</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>17</v>
@@ -1675,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L6" s="3">
         <v>780</v>
@@ -1699,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1719,19 +1722,19 @@
         <v>24</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L7" s="3">
         <v>780</v>
@@ -1746,7 +1749,7 @@
         <v>20</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>21</v>
@@ -1766,7 +1769,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E8" s="3">
         <v>32</v>
@@ -1777,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L8" s="3">
         <v>780</v>
@@ -1795,7 +1798,7 @@
         <v>108</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>13</v>
@@ -1826,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L9" s="3">
         <v>780</v>
@@ -1841,7 +1844,7 @@
         <v>121</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>24</v>
@@ -1864,7 +1867,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E10" s="3">
         <v>41</v>
@@ -1873,10 +1876,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L10" s="3">
         <v>780</v>
@@ -1908,7 +1911,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -1919,10 +1922,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L11" s="3">
         <v>780</v>
@@ -1937,13 +1940,13 @@
         <v>29</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1957,7 +1960,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E12" s="3">
         <v>56</v>
@@ -1966,13 +1969,13 @@
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L12" s="3">
         <v>780</v>
@@ -2013,16 +2016,16 @@
         <v>57</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H13" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L13" s="3">
         <v>780</v>
@@ -2034,7 +2037,7 @@
         <v>121</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>34</v>
@@ -2046,7 +2049,7 @@
         <v>26</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -2060,22 +2063,22 @@
         <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E14" s="3">
         <v>63</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H14" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L14" s="3">
         <v>780</v>
@@ -2099,7 +2102,7 @@
         <v>39</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -2122,10 +2125,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L15" s="3">
         <v>780</v>
@@ -2137,10 +2140,10 @@
         <v>278</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>40</v>
@@ -2154,10 +2157,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E16" s="3">
         <v>78</v>
@@ -2166,13 +2169,13 @@
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L16" s="3">
         <v>780</v>
@@ -2188,7 +2191,7 @@
         <v>41</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -2202,22 +2205,22 @@
         <v>61</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="E17" s="3">
         <v>89</v>
       </c>
+      <c r="F17" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="H17" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L17" s="3">
         <v>780</v>
@@ -2252,7 +2255,7 @@
         <v>56</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="E18" s="3">
         <v>93</v>
@@ -2261,19 +2264,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="L18" s="3">
         <v>780</v>
       </c>
       <c r="M18" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="N18" s="3">
         <v>296</v>
@@ -2291,7 +2291,7 @@
         <v>45</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -2305,7 +2305,7 @@
         <v>57</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="E19" s="3">
         <v>97</v>
@@ -2314,19 +2314,16 @@
         <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L19" s="3">
         <v>780</v>
       </c>
       <c r="M19" s="3">
-        <v>900</v>
+        <v>640</v>
       </c>
       <c r="N19" s="3">
         <v>80</v>
@@ -2341,7 +2338,7 @@
         <v>28</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -2349,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2357,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2445,7 +2442,7 @@
     </row>
     <row r="2" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B2" s="11">
         <v>0</v>
@@ -2504,7 +2501,7 @@
     </row>
     <row r="3" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B3" s="11">
         <v>0</v>
@@ -2563,7 +2560,7 @@
     </row>
     <row r="4" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B4" s="11">
         <v>0</v>
@@ -2622,7 +2619,7 @@
     </row>
     <row r="5" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" s="11">
         <v>0</v>
@@ -2681,7 +2678,7 @@
     </row>
     <row r="6" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B6" s="11">
         <v>0</v>
@@ -2740,7 +2737,7 @@
     </row>
     <row r="7" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B7" s="11">
         <v>0</v>
@@ -2799,7 +2796,7 @@
     </row>
     <row r="8" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
@@ -2858,7 +2855,7 @@
     </row>
     <row r="9" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B9" s="11">
         <v>0</v>
@@ -2917,7 +2914,7 @@
     </row>
     <row r="10" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
@@ -2976,7 +2973,7 @@
     </row>
     <row r="11" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B11" s="11">
         <v>0</v>
@@ -3035,7 +3032,7 @@
     </row>
     <row r="12" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B12" s="11">
         <v>0</v>
@@ -3094,7 +3091,7 @@
     </row>
     <row r="13" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B13" s="11">
         <v>0</v>
@@ -3153,7 +3150,7 @@
     </row>
     <row r="14" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B14" s="11">
         <v>0</v>
@@ -3212,7 +3209,7 @@
     </row>
     <row r="15" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B15" s="11">
         <v>0</v>
@@ -3271,7 +3268,7 @@
     </row>
     <row r="16" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B16" s="11">
         <v>0</v>
@@ -3330,7 +3327,7 @@
     </row>
     <row r="17" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B17" s="11">
         <v>0</v>
@@ -3389,7 +3386,7 @@
     </row>
     <row r="18" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B18" s="11">
         <v>0</v>

--- a/ewhr/data/list_of_tables_for_summary.xlsx
+++ b/ewhr/data/list_of_tables_for_summary.xlsx
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ewhr/data/list_of_tables_for_summary.xlsx
+++ b/ewhr/data/list_of_tables_for_summary.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="checklist" sheetId="2" r:id="rId2"/>
+    <sheet name="vbr_edits" sheetId="3" r:id="rId2"/>
+    <sheet name="comparison" sheetId="4" r:id="rId3"/>
+    <sheet name="checklist" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="167">
   <si>
     <t>fig_id</t>
   </si>
@@ -72,9 +74,6 @@
     <t>Accessed 10 July 2015</t>
   </si>
   <si>
-    <t>This source has changed. In the Draft Report it was UNDP data. Please note that the currency is US$</t>
-  </si>
-  <si>
     <t>http://vizhub.healthdata.org/irank/arrow.php</t>
   </si>
   <si>
@@ -93,9 +92,6 @@
     <t>Accessed 16 June 2015</t>
   </si>
   <si>
-    <t>Greece and Ireland do not have data for 2013. Iceland, Norway and Switzerland are non-EU</t>
-  </si>
-  <si>
     <t>Accessed 22 April 2015</t>
   </si>
   <si>
@@ -105,9 +101,6 @@
     <t>Accessed on 26 April 2015</t>
   </si>
   <si>
-    <t>Wrong reference in the Draft Report to 2011 Unicef report instead of the 2015</t>
-  </si>
-  <si>
     <t>http://ec.europa.eu/eurostat/web/products-datasets/-/t2020_50</t>
   </si>
   <si>
@@ -126,12 +119,6 @@
     <t>Accessed 13 July 2015</t>
   </si>
   <si>
-    <t>No access date in the original excel or draft document. Today's date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/sowc2011/fullreport.php </t>
-  </si>
-  <si>
     <t>Accessed 31 May 2015</t>
   </si>
   <si>
@@ -144,15 +131,9 @@
     <t>Accessed 25 May 2015</t>
   </si>
   <si>
-    <t>Problems with the original link. I have changed it</t>
-  </si>
-  <si>
     <t>Accessed 26 May 2015</t>
   </si>
   <si>
-    <t>Will wait to change until you have tried the new version</t>
-  </si>
-  <si>
     <t>European Union Agency for Fundamental Rights (FRA)</t>
   </si>
   <si>
@@ -162,9 +143,6 @@
     <t>Accessed 09 July 2015</t>
   </si>
   <si>
-    <t>I have inserted the date you accessed the web</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -174,9 +152,6 @@
     <t>Gender pay gap in 29 countries in Europe</t>
   </si>
   <si>
-    <t>Probability of dying before 5 years</t>
-  </si>
-  <si>
     <t>Opportunity for early developments for girls</t>
   </si>
   <si>
@@ -226,9 +201,6 @@
   </si>
   <si>
     <t>Gender pay gap (%) in selected Member States (2013)</t>
-  </si>
-  <si>
-    <t>Pre-primary School Participation for girls (2000-2012)</t>
   </si>
   <si>
     <t>Differences in adolescents in attitudes towards wife beating (2009-2013)</t>
@@ -268,9 +240,6 @@
 Data refer to the most recent year available during the period specified in the column heading.</t>
   </si>
   <si>
-    <t>United Nations Statistics Division.</t>
-  </si>
-  <si>
     <t>WHO  Global health observatory.</t>
   </si>
   <si>
@@ -280,12 +249,6 @@
     <t>World Economic Forum (WEF). The Global Gender Gap Report (2014)</t>
   </si>
   <si>
-    <t>Unicef 2015 State of the World's Children  (2015)</t>
-  </si>
-  <si>
-    <t>Unicef 2015 State of the World's Children  (2011)</t>
-  </si>
-  <si>
     <t>Institute of Health Metrics and Evaluation</t>
   </si>
   <si>
@@ -415,9 +378,6 @@
     <t>The data for the following countries is provisional - Germany, Spain, France, Croatia, Luxembourg, Poland, and Finland.  The data for Romania is estimated.</t>
   </si>
   <si>
-    <t>This represents the difference between average gross hourly earnings of male paid employees and female paid employees as a percentage of gross hourly earnings of male paid employees.  The population consists of all paid employees in enterprises with 10 employees or more.</t>
-  </si>
-  <si>
     <t>Probability of dying before 5 years per 1000 live births</t>
   </si>
   <si>
@@ -430,9 +390,6 @@
     <t>% of eligible population</t>
   </si>
   <si>
-    <t>Risk of poverty and social exclusion for girls age less than 6 years in the EU (2013)</t>
-  </si>
-  <si>
     <t>http://1.usa.gov/1L02Ezu</t>
   </si>
   <si>
@@ -475,28 +432,119 @@
     <t>Mean Number of Years in School (Females)</t>
   </si>
   <si>
-    <t>Self-rated health among women aged 65+ in EU countries by wealth quintiles (2013)</t>
-  </si>
-  <si>
     <t>The data for Croatia, Czech Republic, Iceland, and Lithuania are of low reliability.</t>
   </si>
   <si>
     <t>Percentage of responses</t>
   </si>
   <si>
-    <t>Long-term pyschological consequences of partner violence reported by women 60+ years</t>
-  </si>
-  <si>
     <t>Differences in poverty risk among older women by age (2013)</t>
+  </si>
+  <si>
+    <t>Source quoted in the references is 5. Global health observatory data repository. Life expectancy. Data by country [online database]. Geneva: World Health Organization; 2015 . Indirectly the same source, which one do you prefer?</t>
+  </si>
+  <si>
+    <t>I have not checked this yet as the figure has to be finalized first</t>
+  </si>
+  <si>
+    <t>Fig. 6 shows the gender pay gap in a number of European countries. This represents the difference between average gross hourly earnings of male paid employees and female paid employees as a percentage of gross hourly earnings of male paid employees.  The population consists of all paid employees in enterprises with 10 employees or more.</t>
+  </si>
+  <si>
+    <t>Probability of dying before 5 years of age</t>
+  </si>
+  <si>
+    <t>Have added "of age" to the main title</t>
+  </si>
+  <si>
+    <t>Pre-primary School Participation for girls (2009-2012)</t>
+  </si>
+  <si>
+    <t>Unicef. State of the World's Children  (2015)</t>
+  </si>
+  <si>
+    <t>Time frame for data is 2009-12. As a lay reader it seems peculiar to have enrollment rate of more than 100%. There is not additional information in neither the main source (UNICEF) nor in Sarah's long report version. Caption information will follow when the report text has been changed</t>
+  </si>
+  <si>
+    <t>Risk of poverty and social exclusion for girls age less than 6 years in  number of European countries (2013)</t>
+  </si>
+  <si>
+    <t>I have changed sub title as some of the countries in the table are not EU</t>
+  </si>
+  <si>
+    <t>I will get hold of Kristina</t>
+  </si>
+  <si>
+    <t>Fig. 11 shows the percentage of boys and girls aged 15–19 who consider a husband to be justified in hitting or beating his wife for at least one of the following reasons: if his wife burns the food, argues with him, goes out without telling him, neglects the children or refuses sexual relations.</t>
+  </si>
+  <si>
+    <t>http://www.data.unicef.org/corecode/uploads/document6/uploaded_pdfs/corecode/SOWC_2015_Summary_and_Tables-final_214.pdf</t>
+  </si>
+  <si>
+    <t>The reference was wrong, the correct reference is the 2015 report, however the data plotted are not the same as in the report. The datalink  is now directly to the page in the report where the figures are. Can I change it myself?</t>
+  </si>
+  <si>
+    <t>United Nations Statistics Division</t>
+  </si>
+  <si>
+    <t>I have to dig further for references and links for this one. I will do that tomorrow</t>
+  </si>
+  <si>
+    <t>Differences among women aged 65+ in European countries for self-rated health very good-good by wealth quintiles (2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fig. 16 shows that the higher the level of income, the more likely it is that women will report their health as very good or good </t>
+  </si>
+  <si>
+    <t>Subtitle changes as there are also non EU countries in the table</t>
+  </si>
+  <si>
+    <t>Long-term pyschological consequences of violence as a result of physical and sexual violence by a partner reported by women 60+ years in the EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fig. 17 shows differences in risk for poverty or social exclusion among older women in a number of European countries in 2013 </t>
+  </si>
+  <si>
+    <t>Number of children enrolled in pre-primary school, regardless of age, expressed as a percentage of the total number of children of official pre-primary school age.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fig. 2 presents data from 2012 on women’s healthy life expectancy at birth and years spent in ill health, showing that 8–12 years (average 10) are spent in ill health (5). </t>
+  </si>
+  <si>
+    <t>The World Economic Forum Gender Index benchmarks national gender gaps in relation to economics, politics, education and health. Fig. 1 shows results for 47 countries in the Region in 2014, where a score of 0 means complete inequality and 1 complete equality (4)</t>
+  </si>
+  <si>
+    <t>Fig. 5 shows that in 2012, only 29 countries had a labour-force participation rate greater than 50% for women aged 15+ years, compared to 47 for males (10)</t>
+  </si>
+  <si>
+    <t>Fig. 7: Girls under 5 are less likely to die than boys (15), and the gap in male and female mortality is decreasing.</t>
+  </si>
+  <si>
+    <t>Fig. 15 shows that unmet need for family planning in Member States for which data are available ranges from 5% to nearly 23% (58). Unmet need is defined as the percentage of women who are fertile and sexually active but are not using any means of contraception and who report that they either do not want any more children or wish to delay the next child</t>
+  </si>
+  <si>
+    <t>Fig. 18 shows the longer-term psychological consequences of violence by a partner reported by women aged 60+ years in EU countries (67). It highlights health consequences reflected in conditions identified as broad causes of disease among women, including depression, anxiety, feeling vulnerable and having difficulty sleeping.</t>
+  </si>
+  <si>
+    <t>Fig. 3: Links between life expectancy and income show that generally, the higher the income of the population, the longer life will be. Income alone, however, cannot explain life expectancy</t>
+  </si>
+  <si>
+    <t>Fig. 10 shows the correlation between  adolescent birth rates and mean years of schooling for women in the Region (30). Generally, the higher the mean years of schooling, the lower the adolescent birth rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -665,6 +713,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -964,72 +1026,78 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1063,6 +1131,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1073,7 +1142,128 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1378,24 +1568,24 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N2" sqref="N2:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" style="4" customWidth="1"/>
-    <col min="4" max="4" width="53.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="3" customWidth="1"/>
-    <col min="6" max="7" width="13" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="81.5" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="4" customWidth="1"/>
+    <col min="7" max="7" width="82.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="3" customWidth="1"/>
+    <col min="11" max="13" width="15.6640625" style="3" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="52.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="58.83203125" style="4" customWidth="1"/>
     <col min="16" max="16" width="85.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="82" style="3" bestFit="1" customWidth="1"/>
@@ -1405,13 +1595,13 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -1420,16 +1610,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
@@ -1438,10 +1628,10 @@
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>6</v>
@@ -1456,10 +1646,10 @@
         <v>9</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1473,22 +1663,25 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
       </c>
+      <c r="G2" s="14" t="s">
+        <v>159</v>
+      </c>
       <c r="H2" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L2" s="3">
         <v>960</v>
@@ -1496,11 +1689,11 @@
       <c r="M2" s="3">
         <v>1000</v>
       </c>
-      <c r="N2" s="3">
-        <v>34</v>
+      <c r="N2">
+        <v>9999</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>11</v>
@@ -1517,27 +1710,29 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E3" s="3">
         <v>11</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="14" t="s">
+        <v>165</v>
+      </c>
       <c r="H3" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="L3" s="3">
         <v>780</v>
@@ -1545,11 +1740,11 @@
       <c r="M3" s="3">
         <v>900</v>
       </c>
-      <c r="N3" s="3">
-        <v>39</v>
+      <c r="N3">
+        <v>9999</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>13</v>
@@ -1557,11 +1752,8 @@
       <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="S3" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1572,10 +1764,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3">
         <v>13</v>
@@ -1584,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="L4" s="3">
         <v>780</v>
@@ -1598,20 +1790,20 @@
       <c r="M4" s="3">
         <v>900</v>
       </c>
-      <c r="N4" s="3">
-        <v>41</v>
+      <c r="N4">
+        <v>9999</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1622,22 +1814,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3">
         <v>15</v>
       </c>
+      <c r="G5" s="14" t="s">
+        <v>160</v>
+      </c>
       <c r="H5" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="L5" s="3">
         <v>960</v>
@@ -1645,14 +1840,14 @@
       <c r="M5" s="3">
         <v>780</v>
       </c>
-      <c r="N5" s="3">
-        <v>44</v>
+      <c r="N5">
+        <v>9999</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>12</v>
@@ -1666,22 +1861,25 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3">
         <v>21</v>
       </c>
+      <c r="G6" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="H6" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="L6" s="3">
         <v>780</v>
@@ -1689,20 +1887,20 @@
       <c r="M6" s="3">
         <v>900</v>
       </c>
-      <c r="N6" s="3">
-        <v>62</v>
+      <c r="N6">
+        <v>9999</v>
       </c>
       <c r="O6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1713,28 +1911,28 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3">
         <v>24</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="L7" s="3">
         <v>780</v>
@@ -1742,20 +1940,17 @@
       <c r="M7" s="3">
         <v>900</v>
       </c>
-      <c r="N7" s="3">
-        <v>72</v>
+      <c r="N7">
+        <v>9999</v>
       </c>
       <c r="O7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1766,27 +1961,29 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E8" s="3">
         <v>32</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="H8" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="L8" s="3">
         <v>780</v>
@@ -1794,17 +1991,17 @@
       <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
-        <v>108</v>
+      <c r="N8">
+        <v>9999</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1815,24 +2012,26 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="E9" s="3">
         <v>39</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="14"/>
       <c r="H9" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="L9" s="3">
         <v>780</v>
@@ -1840,20 +2039,17 @@
       <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
-        <v>121</v>
+      <c r="N9">
+        <v>9999</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1864,10 +2060,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E10" s="3">
         <v>41</v>
@@ -1876,10 +2072,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="L10" s="3">
         <v>780</v>
@@ -1887,17 +2083,17 @@
       <c r="M10" s="3">
         <v>640</v>
       </c>
-      <c r="N10" s="3">
-        <v>80</v>
+      <c r="N10">
+        <v>9999</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1908,24 +2104,24 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="L11" s="3">
         <v>780</v>
@@ -1933,20 +2129,20 @@
       <c r="M11" s="3">
         <v>640</v>
       </c>
-      <c r="N11" s="3">
-        <v>186</v>
+      <c r="N11">
+        <v>9999</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1957,25 +2153,28 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E12" s="3">
         <v>56</v>
       </c>
+      <c r="G12" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="H12" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="L12" s="3">
         <v>780</v>
@@ -1983,20 +2182,17 @@
       <c r="M12" s="3">
         <v>780</v>
       </c>
-      <c r="N12" s="3">
-        <v>203</v>
+      <c r="N12">
+        <v>9999</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -2007,25 +2203,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3">
         <v>57</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="H13" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="L13" s="3">
         <v>780</v>
@@ -2033,23 +2232,20 @@
       <c r="M13" s="3">
         <v>640</v>
       </c>
-      <c r="N13" s="3">
-        <v>121</v>
+      <c r="N13">
+        <v>9999</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -2060,25 +2256,25 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E14" s="3">
         <v>63</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H14" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="L14" s="3">
         <v>780</v>
@@ -2086,23 +2282,20 @@
       <c r="M14" s="3">
         <v>640</v>
       </c>
-      <c r="N14" s="3">
-        <v>235</v>
+      <c r="N14">
+        <v>9999</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -2113,22 +2306,25 @@
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3">
         <v>73</v>
       </c>
+      <c r="G15" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="H15" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="L15" s="3">
         <v>780</v>
@@ -2136,17 +2332,17 @@
       <c r="M15" s="3">
         <v>640</v>
       </c>
-      <c r="N15" s="3">
-        <v>278</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>80</v>
+      <c r="N15">
+        <v>9999</v>
+      </c>
+      <c r="O15" t="s">
+        <v>151</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -2157,10 +2353,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E16" s="3">
         <v>78</v>
@@ -2169,13 +2365,13 @@
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L16" s="3">
         <v>780</v>
@@ -2183,15 +2379,12 @@
       <c r="M16" s="3">
         <v>900</v>
       </c>
-      <c r="N16" s="7">
-        <v>39203</v>
+      <c r="N16">
+        <v>9999</v>
       </c>
       <c r="O16" s="3"/>
-      <c r="R16" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="S16" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -2202,25 +2395,28 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E17" s="3">
         <v>89</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="H17" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="L17" s="3">
         <v>780</v>
@@ -2228,20 +2424,17 @@
       <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
-        <v>235</v>
+      <c r="N17">
+        <v>9999</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -2252,22 +2445,25 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E18" s="3">
         <v>93</v>
       </c>
+      <c r="G18" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="H18" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="L18" s="3">
         <v>780</v>
@@ -2275,23 +2471,20 @@
       <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
-        <v>296</v>
+      <c r="N18">
+        <v>9999</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>95</v>
+        <v>37</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -2302,22 +2495,25 @@
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E19" s="3">
         <v>97</v>
       </c>
+      <c r="G19" s="14" t="s">
+        <v>157</v>
+      </c>
       <c r="H19" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="L19" s="3">
         <v>780</v>
@@ -2325,20 +2521,20 @@
       <c r="M19" s="3">
         <v>640</v>
       </c>
-      <c r="N19" s="3">
-        <v>80</v>
+      <c r="N19">
+        <v>9999</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -2346,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2354,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2367,6 +2563,2989 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="53.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="4" customWidth="1"/>
+    <col min="7" max="7" width="87.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="3" customWidth="1"/>
+    <col min="11" max="13" width="15.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="52.83203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="85.83203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="82" style="3" customWidth="1"/>
+    <col min="19" max="19" width="18.1640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="3">
+        <v>960</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N2">
+        <v>9999</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="3">
+        <v>780</v>
+      </c>
+      <c r="M3" s="3">
+        <v>900</v>
+      </c>
+      <c r="N3">
+        <v>9999</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="3">
+        <v>780</v>
+      </c>
+      <c r="M4" s="3">
+        <v>900</v>
+      </c>
+      <c r="N4">
+        <v>9999</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="3">
+        <v>960</v>
+      </c>
+      <c r="M5" s="3">
+        <v>780</v>
+      </c>
+      <c r="N5">
+        <v>9999</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="3">
+        <v>780</v>
+      </c>
+      <c r="M6" s="3">
+        <v>900</v>
+      </c>
+      <c r="N6">
+        <v>9999</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="3">
+        <v>780</v>
+      </c>
+      <c r="M7" s="3">
+        <v>900</v>
+      </c>
+      <c r="N7">
+        <v>9999</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="3">
+        <v>780</v>
+      </c>
+      <c r="M8" s="3">
+        <v>900</v>
+      </c>
+      <c r="N8">
+        <v>9999</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="3">
+        <v>780</v>
+      </c>
+      <c r="M9" s="3">
+        <v>900</v>
+      </c>
+      <c r="N9">
+        <v>9999</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="3">
+        <v>780</v>
+      </c>
+      <c r="M10" s="3">
+        <v>640</v>
+      </c>
+      <c r="N10">
+        <v>9999</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="3">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="3">
+        <v>780</v>
+      </c>
+      <c r="M11" s="3">
+        <v>640</v>
+      </c>
+      <c r="N11">
+        <v>9999</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="3">
+        <v>780</v>
+      </c>
+      <c r="M12" s="3">
+        <v>780</v>
+      </c>
+      <c r="N12">
+        <v>9999</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="3">
+        <v>780</v>
+      </c>
+      <c r="M13" s="3">
+        <v>640</v>
+      </c>
+      <c r="N13">
+        <v>9999</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="3">
+        <v>780</v>
+      </c>
+      <c r="M14" s="3">
+        <v>640</v>
+      </c>
+      <c r="N14">
+        <v>9999</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="3">
+        <v>12</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="3">
+        <v>780</v>
+      </c>
+      <c r="M15" s="3">
+        <v>640</v>
+      </c>
+      <c r="N15">
+        <v>9999</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="3">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" s="3">
+        <v>780</v>
+      </c>
+      <c r="M16" s="3">
+        <v>900</v>
+      </c>
+      <c r="N16">
+        <v>9999</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="S16" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="3">
+        <v>780</v>
+      </c>
+      <c r="M17" s="3">
+        <v>900</v>
+      </c>
+      <c r="N17">
+        <v>9999</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="3">
+        <v>14</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L18" s="3">
+        <v>780</v>
+      </c>
+      <c r="M18" s="3">
+        <v>700</v>
+      </c>
+      <c r="N18">
+        <v>9999</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="3">
+        <v>13</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="3">
+        <v>780</v>
+      </c>
+      <c r="M19" s="3">
+        <v>640</v>
+      </c>
+      <c r="N19">
+        <v>9999</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P5" r:id="rId1"/>
+    <hyperlink ref="P10" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="214.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>Sheet1!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>Sheet1!B2</f>
+        <v>2</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(Sheet1!C2&lt;&gt;vbr_edits!C2,vbr_edits!C2,"")</f>
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(Sheet1!D2&lt;&gt;vbr_edits!D2,vbr_edits!D2,"")</f>
+        <v/>
+      </c>
+      <c r="E2">
+        <f>IF(Sheet1!E2&lt;&gt;vbr_edits!E2,vbr_edits!E2,"")</f>
+        <v>2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(Sheet1!F2&lt;&gt;vbr_edits!F2,vbr_edits!F2,"")</f>
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(Sheet1!G2&lt;&gt;vbr_edits!G2,vbr_edits!G2,"")</f>
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(Sheet1!H2&lt;&gt;vbr_edits!H2,vbr_edits!H2,"")</f>
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(Sheet1!I2&lt;&gt;vbr_edits!I2,vbr_edits!I2,"")</f>
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(Sheet1!J2&lt;&gt;vbr_edits!J2,vbr_edits!J2,"")</f>
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(Sheet1!K2&lt;&gt;vbr_edits!K2,vbr_edits!K2,"")</f>
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(Sheet1!L2&lt;&gt;vbr_edits!L2,vbr_edits!L2,"")</f>
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(Sheet1!M2&lt;&gt;vbr_edits!M2,vbr_edits!M2,"")</f>
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <f>IF(Sheet1!N2&lt;&gt;vbr_edits!N2,vbr_edits!N2,"")</f>
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(Sheet1!O2&lt;&gt;vbr_edits!O2,vbr_edits!O2,"")</f>
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <f>IF(Sheet1!P2&lt;&gt;vbr_edits!P2,vbr_edits!P2,"")</f>
+        <v/>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(Sheet1!Q2&lt;&gt;vbr_edits!Q2,vbr_edits!Q2,"")</f>
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <f>IF(Sheet1!R2&lt;&gt;vbr_edits!R2,vbr_edits!R2,"")</f>
+        <v/>
+      </c>
+      <c r="S2" t="str">
+        <f>IF(Sheet1!S2&lt;&gt;vbr_edits!S2,vbr_edits!S2,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>Sheet1!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>Sheet1!B3</f>
+        <v>3</v>
+      </c>
+      <c r="C3" t="str">
+        <f>IF(Sheet1!C3&lt;&gt;vbr_edits!C3,vbr_edits!C3,"")</f>
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(Sheet1!D3&lt;&gt;vbr_edits!D3,vbr_edits!D3,"")</f>
+        <v/>
+      </c>
+      <c r="E3">
+        <f>IF(Sheet1!E3&lt;&gt;vbr_edits!E3,vbr_edits!E3,"")</f>
+        <v>2</v>
+      </c>
+      <c r="F3" t="str">
+        <f>IF(Sheet1!F3&lt;&gt;vbr_edits!F3,vbr_edits!F3,"")</f>
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(Sheet1!G3&lt;&gt;vbr_edits!G3,vbr_edits!G3,"")</f>
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <f>IF(Sheet1!H3&lt;&gt;vbr_edits!H3,vbr_edits!H3,"")</f>
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <f>IF(Sheet1!I3&lt;&gt;vbr_edits!I3,vbr_edits!I3,"")</f>
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(Sheet1!J3&lt;&gt;vbr_edits!J3,vbr_edits!J3,"")</f>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <f>IF(Sheet1!K3&lt;&gt;vbr_edits!K3,vbr_edits!K3,"")</f>
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <f>IF(Sheet1!L3&lt;&gt;vbr_edits!L3,vbr_edits!L3,"")</f>
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <f>IF(Sheet1!M3&lt;&gt;vbr_edits!M3,vbr_edits!M3,"")</f>
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <f>IF(Sheet1!N3&lt;&gt;vbr_edits!N3,vbr_edits!N3,"")</f>
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <f>IF(Sheet1!O3&lt;&gt;vbr_edits!O3,vbr_edits!O3,"")</f>
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <f>IF(Sheet1!P3&lt;&gt;vbr_edits!P3,vbr_edits!P3,"")</f>
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <f>IF(Sheet1!Q3&lt;&gt;vbr_edits!Q3,vbr_edits!Q3,"")</f>
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <f>IF(Sheet1!R3&lt;&gt;vbr_edits!R3,vbr_edits!R3,"")</f>
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <f>IF(Sheet1!S3&lt;&gt;vbr_edits!S3,vbr_edits!S3,"")</f>
+        <v>Source quoted in the references is 5. Global health observatory data repository. Life expectancy. Data by country [online database]. Geneva: World Health Organization; 2015 . Indirectly the same source, which one do you prefer?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>Sheet1!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>Sheet1!B4</f>
+        <v>4</v>
+      </c>
+      <c r="C4" t="str">
+        <f>IF(Sheet1!C4&lt;&gt;vbr_edits!C4,vbr_edits!C4,"")</f>
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(Sheet1!D4&lt;&gt;vbr_edits!D4,vbr_edits!D4,"")</f>
+        <v/>
+      </c>
+      <c r="E4">
+        <f>IF(Sheet1!E4&lt;&gt;vbr_edits!E4,vbr_edits!E4,"")</f>
+        <v>2</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(Sheet1!F4&lt;&gt;vbr_edits!F4,vbr_edits!F4,"")</f>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(Sheet1!G4&lt;&gt;vbr_edits!G4,vbr_edits!G4,"")</f>
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <f>IF(Sheet1!H4&lt;&gt;vbr_edits!H4,vbr_edits!H4,"")</f>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <f>IF(Sheet1!I4&lt;&gt;vbr_edits!I4,vbr_edits!I4,"")</f>
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <f>IF(Sheet1!J4&lt;&gt;vbr_edits!J4,vbr_edits!J4,"")</f>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f>IF(Sheet1!K4&lt;&gt;vbr_edits!K4,vbr_edits!K4,"")</f>
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <f>IF(Sheet1!L4&lt;&gt;vbr_edits!L4,vbr_edits!L4,"")</f>
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <f>IF(Sheet1!M4&lt;&gt;vbr_edits!M4,vbr_edits!M4,"")</f>
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <f>IF(Sheet1!N4&lt;&gt;vbr_edits!N4,vbr_edits!N4,"")</f>
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <f>IF(Sheet1!O4&lt;&gt;vbr_edits!O4,vbr_edits!O4,"")</f>
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <f>IF(Sheet1!P4&lt;&gt;vbr_edits!P4,vbr_edits!P4,"")</f>
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <f>IF(Sheet1!Q4&lt;&gt;vbr_edits!Q4,vbr_edits!Q4,"")</f>
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <f>IF(Sheet1!R4&lt;&gt;vbr_edits!R4,vbr_edits!R4,"")</f>
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(Sheet1!S4&lt;&gt;vbr_edits!S4,vbr_edits!S4,"")</f>
+        <v>I have not checked this yet as the figure has to be finalized first</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>Sheet1!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>Sheet1!B5</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IF(Sheet1!C5&lt;&gt;vbr_edits!C5,vbr_edits!C5,"")</f>
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(Sheet1!D5&lt;&gt;vbr_edits!D5,vbr_edits!D5,"")</f>
+        <v/>
+      </c>
+      <c r="E5">
+        <f>IF(Sheet1!E5&lt;&gt;vbr_edits!E5,vbr_edits!E5,"")</f>
+        <v>3</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(Sheet1!F5&lt;&gt;vbr_edits!F5,vbr_edits!F5,"")</f>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(Sheet1!G5&lt;&gt;vbr_edits!G5,vbr_edits!G5,"")</f>
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <f>IF(Sheet1!H5&lt;&gt;vbr_edits!H5,vbr_edits!H5,"")</f>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f>IF(Sheet1!I5&lt;&gt;vbr_edits!I5,vbr_edits!I5,"")</f>
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <f>IF(Sheet1!J5&lt;&gt;vbr_edits!J5,vbr_edits!J5,"")</f>
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(Sheet1!K5&lt;&gt;vbr_edits!K5,vbr_edits!K5,"")</f>
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <f>IF(Sheet1!L5&lt;&gt;vbr_edits!L5,vbr_edits!L5,"")</f>
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <f>IF(Sheet1!M5&lt;&gt;vbr_edits!M5,vbr_edits!M5,"")</f>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f>IF(Sheet1!N5&lt;&gt;vbr_edits!N5,vbr_edits!N5,"")</f>
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <f>IF(Sheet1!O5&lt;&gt;vbr_edits!O5,vbr_edits!O5,"")</f>
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <f>IF(Sheet1!P5&lt;&gt;vbr_edits!P5,vbr_edits!P5,"")</f>
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <f>IF(Sheet1!Q5&lt;&gt;vbr_edits!Q5,vbr_edits!Q5,"")</f>
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <f>IF(Sheet1!R5&lt;&gt;vbr_edits!R5,vbr_edits!R5,"")</f>
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <f>IF(Sheet1!S5&lt;&gt;vbr_edits!S5,vbr_edits!S5,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>Sheet1!A6</f>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>Sheet1!B6</f>
+        <v>5</v>
+      </c>
+      <c r="C6" t="str">
+        <f>IF(Sheet1!C6&lt;&gt;vbr_edits!C6,vbr_edits!C6,"")</f>
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(Sheet1!D6&lt;&gt;vbr_edits!D6,vbr_edits!D6,"")</f>
+        <v/>
+      </c>
+      <c r="E6">
+        <f>IF(Sheet1!E6&lt;&gt;vbr_edits!E6,vbr_edits!E6,"")</f>
+        <v>3</v>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(Sheet1!F6&lt;&gt;vbr_edits!F6,vbr_edits!F6,"")</f>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(Sheet1!G6&lt;&gt;vbr_edits!G6,vbr_edits!G6,"")</f>
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <f>IF(Sheet1!H6&lt;&gt;vbr_edits!H6,vbr_edits!H6,"")</f>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f>IF(Sheet1!I6&lt;&gt;vbr_edits!I6,vbr_edits!I6,"")</f>
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(Sheet1!J6&lt;&gt;vbr_edits!J6,vbr_edits!J6,"")</f>
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(Sheet1!K6&lt;&gt;vbr_edits!K6,vbr_edits!K6,"")</f>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <f>IF(Sheet1!L6&lt;&gt;vbr_edits!L6,vbr_edits!L6,"")</f>
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <f>IF(Sheet1!M6&lt;&gt;vbr_edits!M6,vbr_edits!M6,"")</f>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <f>IF(Sheet1!N6&lt;&gt;vbr_edits!N6,vbr_edits!N6,"")</f>
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <f>IF(Sheet1!O6&lt;&gt;vbr_edits!O6,vbr_edits!O6,"")</f>
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <f>IF(Sheet1!P6&lt;&gt;vbr_edits!P6,vbr_edits!P6,"")</f>
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <f>IF(Sheet1!Q6&lt;&gt;vbr_edits!Q6,vbr_edits!Q6,"")</f>
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <f>IF(Sheet1!R6&lt;&gt;vbr_edits!R6,vbr_edits!R6,"")</f>
+        <v/>
+      </c>
+      <c r="S6">
+        <f>IF(Sheet1!S6&lt;&gt;vbr_edits!S6,vbr_edits!S6,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>Sheet1!A7</f>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>Sheet1!B7</f>
+        <v>6</v>
+      </c>
+      <c r="C7" t="str">
+        <f>IF(Sheet1!C7&lt;&gt;vbr_edits!C7,vbr_edits!C7,"")</f>
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(Sheet1!D7&lt;&gt;vbr_edits!D7,vbr_edits!D7,"")</f>
+        <v/>
+      </c>
+      <c r="E7">
+        <f>IF(Sheet1!E7&lt;&gt;vbr_edits!E7,vbr_edits!E7,"")</f>
+        <v>3</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(Sheet1!F7&lt;&gt;vbr_edits!F7,vbr_edits!F7,"")</f>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(Sheet1!G7&lt;&gt;vbr_edits!G7,vbr_edits!G7,"")</f>
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <f>IF(Sheet1!H7&lt;&gt;vbr_edits!H7,vbr_edits!H7,"")</f>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f>IF(Sheet1!I7&lt;&gt;vbr_edits!I7,vbr_edits!I7,"")</f>
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(Sheet1!J7&lt;&gt;vbr_edits!J7,vbr_edits!J7,"")</f>
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(Sheet1!K7&lt;&gt;vbr_edits!K7,vbr_edits!K7,"")</f>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f>IF(Sheet1!L7&lt;&gt;vbr_edits!L7,vbr_edits!L7,"")</f>
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <f>IF(Sheet1!M7&lt;&gt;vbr_edits!M7,vbr_edits!M7,"")</f>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f>IF(Sheet1!N7&lt;&gt;vbr_edits!N7,vbr_edits!N7,"")</f>
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <f>IF(Sheet1!O7&lt;&gt;vbr_edits!O7,vbr_edits!O7,"")</f>
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <f>IF(Sheet1!P7&lt;&gt;vbr_edits!P7,vbr_edits!P7,"")</f>
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <f>IF(Sheet1!Q7&lt;&gt;vbr_edits!Q7,vbr_edits!Q7,"")</f>
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <f>IF(Sheet1!R7&lt;&gt;vbr_edits!R7,vbr_edits!R7,"")</f>
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <f>IF(Sheet1!S7&lt;&gt;vbr_edits!S7,vbr_edits!S7,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>Sheet1!A8</f>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>Sheet1!B8</f>
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <f>IF(Sheet1!C8&lt;&gt;vbr_edits!C8,vbr_edits!C8,"")</f>
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(Sheet1!D8&lt;&gt;vbr_edits!D8,vbr_edits!D8,"")</f>
+        <v/>
+      </c>
+      <c r="E8">
+        <f>IF(Sheet1!E8&lt;&gt;vbr_edits!E8,vbr_edits!E8,"")</f>
+        <v>5</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(Sheet1!F8&lt;&gt;vbr_edits!F8,vbr_edits!F8,"")</f>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(Sheet1!G8&lt;&gt;vbr_edits!G8,vbr_edits!G8,"")</f>
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <f>IF(Sheet1!H8&lt;&gt;vbr_edits!H8,vbr_edits!H8,"")</f>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f>IF(Sheet1!I8&lt;&gt;vbr_edits!I8,vbr_edits!I8,"")</f>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f>IF(Sheet1!J8&lt;&gt;vbr_edits!J8,vbr_edits!J8,"")</f>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f>IF(Sheet1!K8&lt;&gt;vbr_edits!K8,vbr_edits!K8,"")</f>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f>IF(Sheet1!L8&lt;&gt;vbr_edits!L8,vbr_edits!L8,"")</f>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f>IF(Sheet1!M8&lt;&gt;vbr_edits!M8,vbr_edits!M8,"")</f>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f>IF(Sheet1!N8&lt;&gt;vbr_edits!N8,vbr_edits!N8,"")</f>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <f>IF(Sheet1!O8&lt;&gt;vbr_edits!O8,vbr_edits!O8,"")</f>
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <f>IF(Sheet1!P8&lt;&gt;vbr_edits!P8,vbr_edits!P8,"")</f>
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <f>IF(Sheet1!Q8&lt;&gt;vbr_edits!Q8,vbr_edits!Q8,"")</f>
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <f>IF(Sheet1!R8&lt;&gt;vbr_edits!R8,vbr_edits!R8,"")</f>
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <f>IF(Sheet1!S8&lt;&gt;vbr_edits!S8,vbr_edits!S8,"")</f>
+        <v>Have added "of age" to the main title</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>Sheet1!A9</f>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>Sheet1!B9</f>
+        <v>9</v>
+      </c>
+      <c r="C9" t="str">
+        <f>IF(Sheet1!C9&lt;&gt;vbr_edits!C9,vbr_edits!C9,"")</f>
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(Sheet1!D9&lt;&gt;vbr_edits!D9,vbr_edits!D9,"")</f>
+        <v/>
+      </c>
+      <c r="E9">
+        <f>IF(Sheet1!E9&lt;&gt;vbr_edits!E9,vbr_edits!E9,"")</f>
+        <v>6</v>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(Sheet1!F9&lt;&gt;vbr_edits!F9,vbr_edits!F9,"")</f>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(Sheet1!G9&lt;&gt;vbr_edits!G9,vbr_edits!G9,"")</f>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <f>IF(Sheet1!H9&lt;&gt;vbr_edits!H9,vbr_edits!H9,"")</f>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f>IF(Sheet1!I9&lt;&gt;vbr_edits!I9,vbr_edits!I9,"")</f>
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <f>IF(Sheet1!J9&lt;&gt;vbr_edits!J9,vbr_edits!J9,"")</f>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f>IF(Sheet1!K9&lt;&gt;vbr_edits!K9,vbr_edits!K9,"")</f>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f>IF(Sheet1!L9&lt;&gt;vbr_edits!L9,vbr_edits!L9,"")</f>
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <f>IF(Sheet1!M9&lt;&gt;vbr_edits!M9,vbr_edits!M9,"")</f>
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <f>IF(Sheet1!N9&lt;&gt;vbr_edits!N9,vbr_edits!N9,"")</f>
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <f>IF(Sheet1!O9&lt;&gt;vbr_edits!O9,vbr_edits!O9,"")</f>
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <f>IF(Sheet1!P9&lt;&gt;vbr_edits!P9,vbr_edits!P9,"")</f>
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <f>IF(Sheet1!Q9&lt;&gt;vbr_edits!Q9,vbr_edits!Q9,"")</f>
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <f>IF(Sheet1!R9&lt;&gt;vbr_edits!R9,vbr_edits!R9,"")</f>
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <f>IF(Sheet1!S9&lt;&gt;vbr_edits!S9,vbr_edits!S9,"")</f>
+        <v>Time frame for data is 2009-12. As a lay reader it seems peculiar to have enrollment rate of more than 100%. There is not additional information in neither the main source (UNICEF) nor in Sarah's long report version. Caption information will follow when the report text has been changed</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>Sheet1!A10</f>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>Sheet1!B10</f>
+        <v>8</v>
+      </c>
+      <c r="C10" t="str">
+        <f>IF(Sheet1!C10&lt;&gt;vbr_edits!C10,vbr_edits!C10,"")</f>
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <f>IF(Sheet1!D10&lt;&gt;vbr_edits!D10,vbr_edits!D10,"")</f>
+        <v/>
+      </c>
+      <c r="E10">
+        <f>IF(Sheet1!E10&lt;&gt;vbr_edits!E10,vbr_edits!E10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(Sheet1!F10&lt;&gt;vbr_edits!F10,vbr_edits!F10,"")</f>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(Sheet1!G10&lt;&gt;vbr_edits!G10,vbr_edits!G10,"")</f>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f>IF(Sheet1!H10&lt;&gt;vbr_edits!H10,vbr_edits!H10,"")</f>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f>IF(Sheet1!I10&lt;&gt;vbr_edits!I10,vbr_edits!I10,"")</f>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f>IF(Sheet1!J10&lt;&gt;vbr_edits!J10,vbr_edits!J10,"")</f>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f>IF(Sheet1!K10&lt;&gt;vbr_edits!K10,vbr_edits!K10,"")</f>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f>IF(Sheet1!L10&lt;&gt;vbr_edits!L10,vbr_edits!L10,"")</f>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f>IF(Sheet1!M10&lt;&gt;vbr_edits!M10,vbr_edits!M10,"")</f>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f>IF(Sheet1!N10&lt;&gt;vbr_edits!N10,vbr_edits!N10,"")</f>
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <f>IF(Sheet1!O10&lt;&gt;vbr_edits!O10,vbr_edits!O10,"")</f>
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <f>IF(Sheet1!P10&lt;&gt;vbr_edits!P10,vbr_edits!P10,"")</f>
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <f>IF(Sheet1!Q10&lt;&gt;vbr_edits!Q10,vbr_edits!Q10,"")</f>
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <f>IF(Sheet1!R10&lt;&gt;vbr_edits!R10,vbr_edits!R10,"")</f>
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <f>IF(Sheet1!S10&lt;&gt;vbr_edits!S10,vbr_edits!S10,"")</f>
+        <v>I have changed sub title as some of the countries in the table are not EU</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>Sheet1!A11</f>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>Sheet1!B11</f>
+        <v>11</v>
+      </c>
+      <c r="C11" t="str">
+        <f>IF(Sheet1!C11&lt;&gt;vbr_edits!C11,vbr_edits!C11,"")</f>
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(Sheet1!D11&lt;&gt;vbr_edits!D11,vbr_edits!D11,"")</f>
+        <v/>
+      </c>
+      <c r="E11">
+        <f>IF(Sheet1!E11&lt;&gt;vbr_edits!E11,vbr_edits!E11,"")</f>
+        <v>9</v>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(Sheet1!F11&lt;&gt;vbr_edits!F11,vbr_edits!F11,"")</f>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(Sheet1!G11&lt;&gt;vbr_edits!G11,vbr_edits!G11,"")</f>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f>IF(Sheet1!H11&lt;&gt;vbr_edits!H11,vbr_edits!H11,"")</f>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f>IF(Sheet1!I11&lt;&gt;vbr_edits!I11,vbr_edits!I11,"")</f>
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <f>IF(Sheet1!J11&lt;&gt;vbr_edits!J11,vbr_edits!J11,"")</f>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f>IF(Sheet1!K11&lt;&gt;vbr_edits!K11,vbr_edits!K11,"")</f>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f>IF(Sheet1!L11&lt;&gt;vbr_edits!L11,vbr_edits!L11,"")</f>
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <f>IF(Sheet1!M11&lt;&gt;vbr_edits!M11,vbr_edits!M11,"")</f>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f>IF(Sheet1!N11&lt;&gt;vbr_edits!N11,vbr_edits!N11,"")</f>
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <f>IF(Sheet1!O11&lt;&gt;vbr_edits!O11,vbr_edits!O11,"")</f>
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <f>IF(Sheet1!P11&lt;&gt;vbr_edits!P11,vbr_edits!P11,"")</f>
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <f>IF(Sheet1!Q11&lt;&gt;vbr_edits!Q11,vbr_edits!Q11,"")</f>
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <f>IF(Sheet1!R11&lt;&gt;vbr_edits!R11,vbr_edits!R11,"")</f>
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <f>IF(Sheet1!S11&lt;&gt;vbr_edits!S11,vbr_edits!S11,"")</f>
+        <v>I will get hold of Kristina</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>Sheet1!A12</f>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>Sheet1!B12</f>
+        <v>10</v>
+      </c>
+      <c r="C12" t="str">
+        <f>IF(Sheet1!C12&lt;&gt;vbr_edits!C12,vbr_edits!C12,"")</f>
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <f>IF(Sheet1!D12&lt;&gt;vbr_edits!D12,vbr_edits!D12,"")</f>
+        <v/>
+      </c>
+      <c r="E12">
+        <f>IF(Sheet1!E12&lt;&gt;vbr_edits!E12,vbr_edits!E12,"")</f>
+        <v>8</v>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(Sheet1!F12&lt;&gt;vbr_edits!F12,vbr_edits!F12,"")</f>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(Sheet1!G12&lt;&gt;vbr_edits!G12,vbr_edits!G12,"")</f>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f>IF(Sheet1!H12&lt;&gt;vbr_edits!H12,vbr_edits!H12,"")</f>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f>IF(Sheet1!I12&lt;&gt;vbr_edits!I12,vbr_edits!I12,"")</f>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f>IF(Sheet1!J12&lt;&gt;vbr_edits!J12,vbr_edits!J12,"")</f>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f>IF(Sheet1!K12&lt;&gt;vbr_edits!K12,vbr_edits!K12,"")</f>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f>IF(Sheet1!L12&lt;&gt;vbr_edits!L12,vbr_edits!L12,"")</f>
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <f>IF(Sheet1!M12&lt;&gt;vbr_edits!M12,vbr_edits!M12,"")</f>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <f>IF(Sheet1!N12&lt;&gt;vbr_edits!N12,vbr_edits!N12,"")</f>
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <f>IF(Sheet1!O12&lt;&gt;vbr_edits!O12,vbr_edits!O12,"")</f>
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <f>IF(Sheet1!P12&lt;&gt;vbr_edits!P12,vbr_edits!P12,"")</f>
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <f>IF(Sheet1!Q12&lt;&gt;vbr_edits!Q12,vbr_edits!Q12,"")</f>
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <f>IF(Sheet1!R12&lt;&gt;vbr_edits!R12,vbr_edits!R12,"")</f>
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <f>IF(Sheet1!S12&lt;&gt;vbr_edits!S12,vbr_edits!S12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>Sheet1!A13</f>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>Sheet1!B13</f>
+        <v>12</v>
+      </c>
+      <c r="C13" t="str">
+        <f>IF(Sheet1!C13&lt;&gt;vbr_edits!C13,vbr_edits!C13,"")</f>
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <f>IF(Sheet1!D13&lt;&gt;vbr_edits!D13,vbr_edits!D13,"")</f>
+        <v/>
+      </c>
+      <c r="E13">
+        <f>IF(Sheet1!E13&lt;&gt;vbr_edits!E13,vbr_edits!E13,"")</f>
+        <v>9</v>
+      </c>
+      <c r="F13" t="str">
+        <f>IF(Sheet1!F13&lt;&gt;vbr_edits!F13,vbr_edits!F13,"")</f>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(Sheet1!G13&lt;&gt;vbr_edits!G13,vbr_edits!G13,"")</f>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f>IF(Sheet1!H13&lt;&gt;vbr_edits!H13,vbr_edits!H13,"")</f>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f>IF(Sheet1!I13&lt;&gt;vbr_edits!I13,vbr_edits!I13,"")</f>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(Sheet1!J13&lt;&gt;vbr_edits!J13,vbr_edits!J13,"")</f>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f>IF(Sheet1!K13&lt;&gt;vbr_edits!K13,vbr_edits!K13,"")</f>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f>IF(Sheet1!L13&lt;&gt;vbr_edits!L13,vbr_edits!L13,"")</f>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f>IF(Sheet1!M13&lt;&gt;vbr_edits!M13,vbr_edits!M13,"")</f>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f>IF(Sheet1!N13&lt;&gt;vbr_edits!N13,vbr_edits!N13,"")</f>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f>IF(Sheet1!O13&lt;&gt;vbr_edits!O13,vbr_edits!O13,"")</f>
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <f>IF(Sheet1!P13&lt;&gt;vbr_edits!P13,vbr_edits!P13,"")</f>
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <f>IF(Sheet1!Q13&lt;&gt;vbr_edits!Q13,vbr_edits!Q13,"")</f>
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <f>IF(Sheet1!R13&lt;&gt;vbr_edits!R13,vbr_edits!R13,"")</f>
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <f>IF(Sheet1!S13&lt;&gt;vbr_edits!S13,vbr_edits!S13,"")</f>
+        <v>The reference was wrong, the correct reference is the 2015 report, however the data plotted are not the same as in the report. The datalink  is now directly to the page in the report where the figures are. Can I change it myself?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>Sheet1!A14</f>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f>Sheet1!B14</f>
+        <v>13</v>
+      </c>
+      <c r="C14" t="str">
+        <f>IF(Sheet1!C14&lt;&gt;vbr_edits!C14,vbr_edits!C14,"")</f>
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <f>IF(Sheet1!D14&lt;&gt;vbr_edits!D14,vbr_edits!D14,"")</f>
+        <v/>
+      </c>
+      <c r="E14">
+        <f>IF(Sheet1!E14&lt;&gt;vbr_edits!E14,vbr_edits!E14,"")</f>
+        <v>11</v>
+      </c>
+      <c r="F14" t="str">
+        <f>IF(Sheet1!F14&lt;&gt;vbr_edits!F14,vbr_edits!F14,"")</f>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(Sheet1!G14&lt;&gt;vbr_edits!G14,vbr_edits!G14,"")</f>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f>IF(Sheet1!H14&lt;&gt;vbr_edits!H14,vbr_edits!H14,"")</f>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f>IF(Sheet1!I14&lt;&gt;vbr_edits!I14,vbr_edits!I14,"")</f>
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <f>IF(Sheet1!J14&lt;&gt;vbr_edits!J14,vbr_edits!J14,"")</f>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f>IF(Sheet1!K14&lt;&gt;vbr_edits!K14,vbr_edits!K14,"")</f>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f>IF(Sheet1!L14&lt;&gt;vbr_edits!L14,vbr_edits!L14,"")</f>
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <f>IF(Sheet1!M14&lt;&gt;vbr_edits!M14,vbr_edits!M14,"")</f>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <f>IF(Sheet1!N14&lt;&gt;vbr_edits!N14,vbr_edits!N14,"")</f>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f>IF(Sheet1!O14&lt;&gt;vbr_edits!O14,vbr_edits!O14,"")</f>
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <f>IF(Sheet1!P14&lt;&gt;vbr_edits!P14,vbr_edits!P14,"")</f>
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <f>IF(Sheet1!Q14&lt;&gt;vbr_edits!Q14,vbr_edits!Q14,"")</f>
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <f>IF(Sheet1!R14&lt;&gt;vbr_edits!R14,vbr_edits!R14,"")</f>
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <f>IF(Sheet1!S14&lt;&gt;vbr_edits!S14,vbr_edits!S14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>Sheet1!A15</f>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>Sheet1!B15</f>
+        <v>15</v>
+      </c>
+      <c r="C15" t="str">
+        <f>IF(Sheet1!C15&lt;&gt;vbr_edits!C15,vbr_edits!C15,"")</f>
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(Sheet1!D15&lt;&gt;vbr_edits!D15,vbr_edits!D15,"")</f>
+        <v/>
+      </c>
+      <c r="E15">
+        <f>IF(Sheet1!E15&lt;&gt;vbr_edits!E15,vbr_edits!E15,"")</f>
+        <v>12</v>
+      </c>
+      <c r="F15" t="str">
+        <f>IF(Sheet1!F15&lt;&gt;vbr_edits!F15,vbr_edits!F15,"")</f>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(Sheet1!G15&lt;&gt;vbr_edits!G15,vbr_edits!G15,"")</f>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f>IF(Sheet1!H15&lt;&gt;vbr_edits!H15,vbr_edits!H15,"")</f>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f>IF(Sheet1!I15&lt;&gt;vbr_edits!I15,vbr_edits!I15,"")</f>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f>IF(Sheet1!J15&lt;&gt;vbr_edits!J15,vbr_edits!J15,"")</f>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f>IF(Sheet1!K15&lt;&gt;vbr_edits!K15,vbr_edits!K15,"")</f>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(Sheet1!L15&lt;&gt;vbr_edits!L15,vbr_edits!L15,"")</f>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f>IF(Sheet1!M15&lt;&gt;vbr_edits!M15,vbr_edits!M15,"")</f>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f>IF(Sheet1!N15&lt;&gt;vbr_edits!N15,vbr_edits!N15,"")</f>
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <f>IF(Sheet1!O15&lt;&gt;vbr_edits!O15,vbr_edits!O15,"")</f>
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <f>IF(Sheet1!P15&lt;&gt;vbr_edits!P15,vbr_edits!P15,"")</f>
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <f>IF(Sheet1!Q15&lt;&gt;vbr_edits!Q15,vbr_edits!Q15,"")</f>
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <f>IF(Sheet1!R15&lt;&gt;vbr_edits!R15,vbr_edits!R15,"")</f>
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <f>IF(Sheet1!S15&lt;&gt;vbr_edits!S15,vbr_edits!S15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>Sheet1!A16</f>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f>Sheet1!B16</f>
+        <v>14</v>
+      </c>
+      <c r="C16" t="str">
+        <f>IF(Sheet1!C16&lt;&gt;vbr_edits!C16,vbr_edits!C16,"")</f>
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <f>IF(Sheet1!D16&lt;&gt;vbr_edits!D16,vbr_edits!D16,"")</f>
+        <v/>
+      </c>
+      <c r="E16">
+        <f>IF(Sheet1!E16&lt;&gt;vbr_edits!E16,vbr_edits!E16,"")</f>
+        <v>12</v>
+      </c>
+      <c r="F16" t="str">
+        <f>IF(Sheet1!F16&lt;&gt;vbr_edits!F16,vbr_edits!F16,"")</f>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(Sheet1!G16&lt;&gt;vbr_edits!G16,vbr_edits!G16,"")</f>
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <f>IF(Sheet1!H16&lt;&gt;vbr_edits!H16,vbr_edits!H16,"")</f>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f>IF(Sheet1!I16&lt;&gt;vbr_edits!I16,vbr_edits!I16,"")</f>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(Sheet1!J16&lt;&gt;vbr_edits!J16,vbr_edits!J16,"")</f>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f>IF(Sheet1!K16&lt;&gt;vbr_edits!K16,vbr_edits!K16,"")</f>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(Sheet1!L16&lt;&gt;vbr_edits!L16,vbr_edits!L16,"")</f>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f>IF(Sheet1!M16&lt;&gt;vbr_edits!M16,vbr_edits!M16,"")</f>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <f>IF(Sheet1!N16&lt;&gt;vbr_edits!N16,vbr_edits!N16,"")</f>
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <f>IF(Sheet1!O16&lt;&gt;vbr_edits!O16,vbr_edits!O16,"")</f>
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <f>IF(Sheet1!P16&lt;&gt;vbr_edits!P16,vbr_edits!P16,"")</f>
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <f>IF(Sheet1!Q16&lt;&gt;vbr_edits!Q16,vbr_edits!Q16,"")</f>
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <f>IF(Sheet1!R16&lt;&gt;vbr_edits!R16,vbr_edits!R16,"")</f>
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <f>IF(Sheet1!S16&lt;&gt;vbr_edits!S16,vbr_edits!S16,"")</f>
+        <v>I have to dig further for references and links for this one. I will do that tomorrow</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>Sheet1!A17</f>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f>Sheet1!B17</f>
+        <v>16</v>
+      </c>
+      <c r="C17" t="str">
+        <f>IF(Sheet1!C17&lt;&gt;vbr_edits!C17,vbr_edits!C17,"")</f>
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <f>IF(Sheet1!D17&lt;&gt;vbr_edits!D17,vbr_edits!D17,"")</f>
+        <v/>
+      </c>
+      <c r="E17">
+        <f>IF(Sheet1!E17&lt;&gt;vbr_edits!E17,vbr_edits!E17,"")</f>
+        <v>13</v>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(Sheet1!F17&lt;&gt;vbr_edits!F17,vbr_edits!F17,"")</f>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(Sheet1!G17&lt;&gt;vbr_edits!G17,vbr_edits!G17,"")</f>
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <f>IF(Sheet1!H17&lt;&gt;vbr_edits!H17,vbr_edits!H17,"")</f>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <f>IF(Sheet1!I17&lt;&gt;vbr_edits!I17,vbr_edits!I17,"")</f>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f>IF(Sheet1!J17&lt;&gt;vbr_edits!J17,vbr_edits!J17,"")</f>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f>IF(Sheet1!K17&lt;&gt;vbr_edits!K17,vbr_edits!K17,"")</f>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(Sheet1!L17&lt;&gt;vbr_edits!L17,vbr_edits!L17,"")</f>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f>IF(Sheet1!M17&lt;&gt;vbr_edits!M17,vbr_edits!M17,"")</f>
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <f>IF(Sheet1!N17&lt;&gt;vbr_edits!N17,vbr_edits!N17,"")</f>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f>IF(Sheet1!O17&lt;&gt;vbr_edits!O17,vbr_edits!O17,"")</f>
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <f>IF(Sheet1!P17&lt;&gt;vbr_edits!P17,vbr_edits!P17,"")</f>
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <f>IF(Sheet1!Q17&lt;&gt;vbr_edits!Q17,vbr_edits!Q17,"")</f>
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <f>IF(Sheet1!R17&lt;&gt;vbr_edits!R17,vbr_edits!R17,"")</f>
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <f>IF(Sheet1!S17&lt;&gt;vbr_edits!S17,vbr_edits!S17,"")</f>
+        <v>Subtitle changes as there are also non EU countries in the table</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>Sheet1!A18</f>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f>Sheet1!B18</f>
+        <v>18</v>
+      </c>
+      <c r="C18" t="str">
+        <f>IF(Sheet1!C18&lt;&gt;vbr_edits!C18,vbr_edits!C18,"")</f>
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <f>IF(Sheet1!D18&lt;&gt;vbr_edits!D18,vbr_edits!D18,"")</f>
+        <v/>
+      </c>
+      <c r="E18">
+        <f>IF(Sheet1!E18&lt;&gt;vbr_edits!E18,vbr_edits!E18,"")</f>
+        <v>14</v>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(Sheet1!F18&lt;&gt;vbr_edits!F18,vbr_edits!F18,"")</f>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(Sheet1!G18&lt;&gt;vbr_edits!G18,vbr_edits!G18,"")</f>
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <f>IF(Sheet1!H18&lt;&gt;vbr_edits!H18,vbr_edits!H18,"")</f>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f>IF(Sheet1!I18&lt;&gt;vbr_edits!I18,vbr_edits!I18,"")</f>
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <f>IF(Sheet1!J18&lt;&gt;vbr_edits!J18,vbr_edits!J18,"")</f>
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f>IF(Sheet1!K18&lt;&gt;vbr_edits!K18,vbr_edits!K18,"")</f>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f>IF(Sheet1!L18&lt;&gt;vbr_edits!L18,vbr_edits!L18,"")</f>
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <f>IF(Sheet1!M18&lt;&gt;vbr_edits!M18,vbr_edits!M18,"")</f>
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <f>IF(Sheet1!N18&lt;&gt;vbr_edits!N18,vbr_edits!N18,"")</f>
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <f>IF(Sheet1!O18&lt;&gt;vbr_edits!O18,vbr_edits!O18,"")</f>
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <f>IF(Sheet1!P18&lt;&gt;vbr_edits!P18,vbr_edits!P18,"")</f>
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <f>IF(Sheet1!Q18&lt;&gt;vbr_edits!Q18,vbr_edits!Q18,"")</f>
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <f>IF(Sheet1!R18&lt;&gt;vbr_edits!R18,vbr_edits!R18,"")</f>
+        <v/>
+      </c>
+      <c r="S18">
+        <f>IF(Sheet1!S18&lt;&gt;vbr_edits!S18,vbr_edits!S18,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>Sheet1!A19</f>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f>Sheet1!B19</f>
+        <v>17</v>
+      </c>
+      <c r="C19" t="str">
+        <f>IF(Sheet1!C19&lt;&gt;vbr_edits!C19,vbr_edits!C19,"")</f>
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <f>IF(Sheet1!D19&lt;&gt;vbr_edits!D19,vbr_edits!D19,"")</f>
+        <v/>
+      </c>
+      <c r="E19">
+        <f>IF(Sheet1!E19&lt;&gt;vbr_edits!E19,vbr_edits!E19,"")</f>
+        <v>13</v>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(Sheet1!F19&lt;&gt;vbr_edits!F19,vbr_edits!F19,"")</f>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(Sheet1!G19&lt;&gt;vbr_edits!G19,vbr_edits!G19,"")</f>
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <f>IF(Sheet1!H19&lt;&gt;vbr_edits!H19,vbr_edits!H19,"")</f>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f>IF(Sheet1!I19&lt;&gt;vbr_edits!I19,vbr_edits!I19,"")</f>
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(Sheet1!J19&lt;&gt;vbr_edits!J19,vbr_edits!J19,"")</f>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f>IF(Sheet1!K19&lt;&gt;vbr_edits!K19,vbr_edits!K19,"")</f>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f>IF(Sheet1!L19&lt;&gt;vbr_edits!L19,vbr_edits!L19,"")</f>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f>IF(Sheet1!M19&lt;&gt;vbr_edits!M19,vbr_edits!M19,"")</f>
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <f>IF(Sheet1!N19&lt;&gt;vbr_edits!N19,vbr_edits!N19,"")</f>
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <f>IF(Sheet1!O19&lt;&gt;vbr_edits!O19,vbr_edits!O19,"")</f>
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <f>IF(Sheet1!P19&lt;&gt;vbr_edits!P19,vbr_edits!P19,"")</f>
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <f>IF(Sheet1!Q19&lt;&gt;vbr_edits!Q19,vbr_edits!Q19,"")</f>
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <f>IF(Sheet1!R19&lt;&gt;vbr_edits!R19,vbr_edits!R19,"")</f>
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <f>IF(Sheet1!S19&lt;&gt;vbr_edits!S19,vbr_edits!S19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>IF(Sheet1!A20&lt;&gt;vbr_edits!A20,vbr_edits!A20,"")</f>
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <f>IF(Sheet1!B20&lt;&gt;vbr_edits!B20,vbr_edits!B20,"")</f>
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <f>IF(Sheet1!C20&lt;&gt;vbr_edits!C20,vbr_edits!C20,"")</f>
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(Sheet1!D20&lt;&gt;vbr_edits!D20,vbr_edits!D20,"")</f>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <f>IF(Sheet1!E20&lt;&gt;vbr_edits!E20,vbr_edits!E20,"")</f>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f>IF(Sheet1!F20&lt;&gt;vbr_edits!F20,vbr_edits!F20,"")</f>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(Sheet1!G20&lt;&gt;vbr_edits!G20,vbr_edits!G20,"")</f>
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <f>IF(Sheet1!H20&lt;&gt;vbr_edits!H20,vbr_edits!H20,"")</f>
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <f>IF(Sheet1!I20&lt;&gt;vbr_edits!I20,vbr_edits!I20,"")</f>
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(Sheet1!J20&lt;&gt;vbr_edits!J20,vbr_edits!J20,"")</f>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f>IF(Sheet1!K20&lt;&gt;vbr_edits!K20,vbr_edits!K20,"")</f>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f>IF(Sheet1!L20&lt;&gt;vbr_edits!L20,vbr_edits!L20,"")</f>
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <f>IF(Sheet1!M20&lt;&gt;vbr_edits!M20,vbr_edits!M20,"")</f>
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <f>IF(Sheet1!N20&lt;&gt;vbr_edits!N20,vbr_edits!N20,"")</f>
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <f>IF(Sheet1!O20&lt;&gt;vbr_edits!O20,vbr_edits!O20,"")</f>
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <f>IF(Sheet1!P20&lt;&gt;vbr_edits!P20,vbr_edits!P20,"")</f>
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <f>IF(Sheet1!Q20&lt;&gt;vbr_edits!Q20,vbr_edits!Q20,"")</f>
+        <v/>
+      </c>
+      <c r="R20" t="str">
+        <f>IF(Sheet1!R20&lt;&gt;vbr_edits!R20,vbr_edits!R20,"")</f>
+        <v/>
+      </c>
+      <c r="S20" t="str">
+        <f>IF(Sheet1!S20&lt;&gt;vbr_edits!S20,vbr_edits!S20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>IF(Sheet1!A21&lt;&gt;vbr_edits!A21,vbr_edits!A21,"")</f>
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <f>IF(Sheet1!B21&lt;&gt;vbr_edits!B21,vbr_edits!B21,"")</f>
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <f>IF(Sheet1!C21&lt;&gt;vbr_edits!C21,vbr_edits!C21,"")</f>
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(Sheet1!D21&lt;&gt;vbr_edits!D21,vbr_edits!D21,"")</f>
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <f>IF(Sheet1!E21&lt;&gt;vbr_edits!E21,vbr_edits!E21,"")</f>
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <f>IF(Sheet1!F21&lt;&gt;vbr_edits!F21,vbr_edits!F21,"")</f>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(Sheet1!G21&lt;&gt;vbr_edits!G21,vbr_edits!G21,"")</f>
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <f>IF(Sheet1!H21&lt;&gt;vbr_edits!H21,vbr_edits!H21,"")</f>
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <f>IF(Sheet1!I21&lt;&gt;vbr_edits!I21,vbr_edits!I21,"")</f>
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <f>IF(Sheet1!J21&lt;&gt;vbr_edits!J21,vbr_edits!J21,"")</f>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f>IF(Sheet1!K21&lt;&gt;vbr_edits!K21,vbr_edits!K21,"")</f>
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <f>IF(Sheet1!L21&lt;&gt;vbr_edits!L21,vbr_edits!L21,"")</f>
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <f>IF(Sheet1!M21&lt;&gt;vbr_edits!M21,vbr_edits!M21,"")</f>
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <f>IF(Sheet1!N21&lt;&gt;vbr_edits!N21,vbr_edits!N21,"")</f>
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <f>IF(Sheet1!O21&lt;&gt;vbr_edits!O21,vbr_edits!O21,"")</f>
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <f>IF(Sheet1!P21&lt;&gt;vbr_edits!P21,vbr_edits!P21,"")</f>
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <f>IF(Sheet1!Q21&lt;&gt;vbr_edits!Q21,vbr_edits!Q21,"")</f>
+        <v/>
+      </c>
+      <c r="R21" t="str">
+        <f>IF(Sheet1!R21&lt;&gt;vbr_edits!R21,vbr_edits!R21,"")</f>
+        <v/>
+      </c>
+      <c r="S21" t="str">
+        <f>IF(Sheet1!S21&lt;&gt;vbr_edits!S21,vbr_edits!S21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>IF(Sheet1!A22&lt;&gt;vbr_edits!A22,vbr_edits!A22,"")</f>
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <f>IF(Sheet1!B22&lt;&gt;vbr_edits!B22,vbr_edits!B22,"")</f>
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <f>IF(Sheet1!C22&lt;&gt;vbr_edits!C22,vbr_edits!C22,"")</f>
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <f>IF(Sheet1!D22&lt;&gt;vbr_edits!D22,vbr_edits!D22,"")</f>
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(Sheet1!E22&lt;&gt;vbr_edits!E22,vbr_edits!E22,"")</f>
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <f>IF(Sheet1!F22&lt;&gt;vbr_edits!F22,vbr_edits!F22,"")</f>
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(Sheet1!G22&lt;&gt;vbr_edits!G22,vbr_edits!G22,"")</f>
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <f>IF(Sheet1!H22&lt;&gt;vbr_edits!H22,vbr_edits!H22,"")</f>
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <f>IF(Sheet1!I22&lt;&gt;vbr_edits!I22,vbr_edits!I22,"")</f>
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <f>IF(Sheet1!J22&lt;&gt;vbr_edits!J22,vbr_edits!J22,"")</f>
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <f>IF(Sheet1!K22&lt;&gt;vbr_edits!K22,vbr_edits!K22,"")</f>
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <f>IF(Sheet1!L22&lt;&gt;vbr_edits!L22,vbr_edits!L22,"")</f>
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <f>IF(Sheet1!M22&lt;&gt;vbr_edits!M22,vbr_edits!M22,"")</f>
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <f>IF(Sheet1!N22&lt;&gt;vbr_edits!N22,vbr_edits!N22,"")</f>
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <f>IF(Sheet1!O22&lt;&gt;vbr_edits!O22,vbr_edits!O22,"")</f>
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <f>IF(Sheet1!P22&lt;&gt;vbr_edits!P22,vbr_edits!P22,"")</f>
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <f>IF(Sheet1!Q22&lt;&gt;vbr_edits!Q22,vbr_edits!Q22,"")</f>
+        <v/>
+      </c>
+      <c r="R22" t="str">
+        <f>IF(Sheet1!R22&lt;&gt;vbr_edits!R22,vbr_edits!R22,"")</f>
+        <v/>
+      </c>
+      <c r="S22" t="str">
+        <f>IF(Sheet1!S22&lt;&gt;vbr_edits!S22,vbr_edits!S22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>IF(Sheet1!A23&lt;&gt;vbr_edits!A23,vbr_edits!A23,"")</f>
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <f>IF(Sheet1!B23&lt;&gt;vbr_edits!B23,vbr_edits!B23,"")</f>
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <f>IF(Sheet1!C23&lt;&gt;vbr_edits!C23,vbr_edits!C23,"")</f>
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <f>IF(Sheet1!D23&lt;&gt;vbr_edits!D23,vbr_edits!D23,"")</f>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <f>IF(Sheet1!E23&lt;&gt;vbr_edits!E23,vbr_edits!E23,"")</f>
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <f>IF(Sheet1!F23&lt;&gt;vbr_edits!F23,vbr_edits!F23,"")</f>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(Sheet1!G23&lt;&gt;vbr_edits!G23,vbr_edits!G23,"")</f>
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <f>IF(Sheet1!H23&lt;&gt;vbr_edits!H23,vbr_edits!H23,"")</f>
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <f>IF(Sheet1!I23&lt;&gt;vbr_edits!I23,vbr_edits!I23,"")</f>
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <f>IF(Sheet1!J23&lt;&gt;vbr_edits!J23,vbr_edits!J23,"")</f>
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <f>IF(Sheet1!K23&lt;&gt;vbr_edits!K23,vbr_edits!K23,"")</f>
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <f>IF(Sheet1!L23&lt;&gt;vbr_edits!L23,vbr_edits!L23,"")</f>
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <f>IF(Sheet1!M23&lt;&gt;vbr_edits!M23,vbr_edits!M23,"")</f>
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <f>IF(Sheet1!N23&lt;&gt;vbr_edits!N23,vbr_edits!N23,"")</f>
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <f>IF(Sheet1!O23&lt;&gt;vbr_edits!O23,vbr_edits!O23,"")</f>
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <f>IF(Sheet1!P23&lt;&gt;vbr_edits!P23,vbr_edits!P23,"")</f>
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <f>IF(Sheet1!Q23&lt;&gt;vbr_edits!Q23,vbr_edits!Q23,"")</f>
+        <v/>
+      </c>
+      <c r="R23" t="str">
+        <f>IF(Sheet1!R23&lt;&gt;vbr_edits!R23,vbr_edits!R23,"")</f>
+        <v/>
+      </c>
+      <c r="S23" t="str">
+        <f>IF(Sheet1!S23&lt;&gt;vbr_edits!S23,vbr_edits!S23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>IF(Sheet1!A24&lt;&gt;vbr_edits!A24,vbr_edits!A24,"")</f>
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <f>IF(Sheet1!B24&lt;&gt;vbr_edits!B24,vbr_edits!B24,"")</f>
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <f>IF(Sheet1!C24&lt;&gt;vbr_edits!C24,vbr_edits!C24,"")</f>
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <f>IF(Sheet1!D24&lt;&gt;vbr_edits!D24,vbr_edits!D24,"")</f>
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <f>IF(Sheet1!E24&lt;&gt;vbr_edits!E24,vbr_edits!E24,"")</f>
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <f>IF(Sheet1!F24&lt;&gt;vbr_edits!F24,vbr_edits!F24,"")</f>
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(Sheet1!G24&lt;&gt;vbr_edits!G24,vbr_edits!G24,"")</f>
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <f>IF(Sheet1!H24&lt;&gt;vbr_edits!H24,vbr_edits!H24,"")</f>
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <f>IF(Sheet1!I24&lt;&gt;vbr_edits!I24,vbr_edits!I24,"")</f>
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <f>IF(Sheet1!J24&lt;&gt;vbr_edits!J24,vbr_edits!J24,"")</f>
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <f>IF(Sheet1!K24&lt;&gt;vbr_edits!K24,vbr_edits!K24,"")</f>
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <f>IF(Sheet1!L24&lt;&gt;vbr_edits!L24,vbr_edits!L24,"")</f>
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <f>IF(Sheet1!M24&lt;&gt;vbr_edits!M24,vbr_edits!M24,"")</f>
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <f>IF(Sheet1!N24&lt;&gt;vbr_edits!N24,vbr_edits!N24,"")</f>
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <f>IF(Sheet1!O24&lt;&gt;vbr_edits!O24,vbr_edits!O24,"")</f>
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <f>IF(Sheet1!P24&lt;&gt;vbr_edits!P24,vbr_edits!P24,"")</f>
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <f>IF(Sheet1!Q24&lt;&gt;vbr_edits!Q24,vbr_edits!Q24,"")</f>
+        <v/>
+      </c>
+      <c r="R24" t="str">
+        <f>IF(Sheet1!R24&lt;&gt;vbr_edits!R24,vbr_edits!R24,"")</f>
+        <v/>
+      </c>
+      <c r="S24" t="str">
+        <f>IF(Sheet1!S24&lt;&gt;vbr_edits!S24,vbr_edits!S24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>IF(Sheet1!A25&lt;&gt;vbr_edits!A25,vbr_edits!A25,"")</f>
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <f>IF(Sheet1!B25&lt;&gt;vbr_edits!B25,vbr_edits!B25,"")</f>
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <f>IF(Sheet1!C25&lt;&gt;vbr_edits!C25,vbr_edits!C25,"")</f>
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <f>IF(Sheet1!D25&lt;&gt;vbr_edits!D25,vbr_edits!D25,"")</f>
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(Sheet1!E25&lt;&gt;vbr_edits!E25,vbr_edits!E25,"")</f>
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <f>IF(Sheet1!F25&lt;&gt;vbr_edits!F25,vbr_edits!F25,"")</f>
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(Sheet1!G25&lt;&gt;vbr_edits!G25,vbr_edits!G25,"")</f>
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <f>IF(Sheet1!H25&lt;&gt;vbr_edits!H25,vbr_edits!H25,"")</f>
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <f>IF(Sheet1!I25&lt;&gt;vbr_edits!I25,vbr_edits!I25,"")</f>
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <f>IF(Sheet1!J25&lt;&gt;vbr_edits!J25,vbr_edits!J25,"")</f>
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <f>IF(Sheet1!K25&lt;&gt;vbr_edits!K25,vbr_edits!K25,"")</f>
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <f>IF(Sheet1!L25&lt;&gt;vbr_edits!L25,vbr_edits!L25,"")</f>
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <f>IF(Sheet1!M25&lt;&gt;vbr_edits!M25,vbr_edits!M25,"")</f>
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <f>IF(Sheet1!N25&lt;&gt;vbr_edits!N25,vbr_edits!N25,"")</f>
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <f>IF(Sheet1!O25&lt;&gt;vbr_edits!O25,vbr_edits!O25,"")</f>
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <f>IF(Sheet1!P25&lt;&gt;vbr_edits!P25,vbr_edits!P25,"")</f>
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <f>IF(Sheet1!Q25&lt;&gt;vbr_edits!Q25,vbr_edits!Q25,"")</f>
+        <v/>
+      </c>
+      <c r="R25" t="str">
+        <f>IF(Sheet1!R25&lt;&gt;vbr_edits!R25,vbr_edits!R25,"")</f>
+        <v/>
+      </c>
+      <c r="S25" t="str">
+        <f>IF(Sheet1!S25&lt;&gt;vbr_edits!S25,vbr_edits!S25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:R19">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="&quot;--same--&quot;">
+      <formula>NOT(ISERROR(SEARCH("""--same--""",C2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
+      <formula>LEN(TRIM(C2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
@@ -2379,1072 +5558,1072 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="7.5" style="9" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="43.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="7.5" style="8" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="12">
+      <c r="B1" s="11">
         <v>1</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="11">
         <v>2</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>3</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="11">
         <v>4</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="11">
         <v>5</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="11">
         <v>6</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="11">
         <v>7</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="11">
         <v>8</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="11">
         <v>9</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="11">
         <v>10</v>
       </c>
-      <c r="L1" s="12">
+      <c r="L1" s="11">
         <v>11</v>
       </c>
-      <c r="M1" s="12">
+      <c r="M1" s="11">
         <v>12</v>
       </c>
-      <c r="N1" s="12">
+      <c r="N1" s="11">
         <v>13</v>
       </c>
-      <c r="O1" s="12">
+      <c r="O1" s="11">
         <v>14</v>
       </c>
-      <c r="P1" s="12">
+      <c r="P1" s="11">
         <v>15</v>
       </c>
-      <c r="Q1" s="12">
+      <c r="Q1" s="11">
         <v>16</v>
       </c>
-      <c r="R1" s="12">
+      <c r="R1" s="11">
         <v>17</v>
       </c>
-      <c r="S1" s="12">
+      <c r="S1" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>0</v>
+      </c>
+      <c r="R2" s="10">
+        <v>0</v>
+      </c>
+      <c r="S2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10">
+        <v>0</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0</v>
+      </c>
+      <c r="S7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0</v>
+      </c>
+      <c r="R8" s="10">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>0</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
+        <v>0</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>0</v>
+      </c>
+      <c r="R13" s="10">
+        <v>0</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
+      <c r="R14" s="10">
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="11">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11">
-        <v>0</v>
-      </c>
-      <c r="J2" s="11">
-        <v>0</v>
-      </c>
-      <c r="K2" s="11">
-        <v>0</v>
-      </c>
-      <c r="L2" s="11">
-        <v>0</v>
-      </c>
-      <c r="M2" s="11">
-        <v>0</v>
-      </c>
-      <c r="N2" s="11">
-        <v>0</v>
-      </c>
-      <c r="O2" s="11">
-        <v>0</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>0</v>
-      </c>
-      <c r="R2" s="11">
-        <v>0</v>
-      </c>
-      <c r="S2" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B15" s="10">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>0</v>
+      </c>
+      <c r="R15" s="10">
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>0</v>
-      </c>
-      <c r="R3" s="11">
-        <v>0</v>
-      </c>
-      <c r="S3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>0</v>
+      </c>
+      <c r="R16" s="10">
+        <v>0</v>
+      </c>
+      <c r="S16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0</v>
-      </c>
-      <c r="P4" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>0</v>
-      </c>
-      <c r="R4" s="11">
-        <v>0</v>
-      </c>
-      <c r="S4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>0</v>
+      </c>
+      <c r="R17" s="10">
+        <v>0</v>
+      </c>
+      <c r="S17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
-        <v>0</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0</v>
-      </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>0</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0</v>
-      </c>
-      <c r="S5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11">
-        <v>0</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0</v>
-      </c>
-      <c r="P6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>0</v>
-      </c>
-      <c r="R6" s="11">
-        <v>0</v>
-      </c>
-      <c r="S6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="11">
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11">
-        <v>0</v>
-      </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>0</v>
-      </c>
-      <c r="R7" s="11">
-        <v>0</v>
-      </c>
-      <c r="S7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="11">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-      <c r="O8" s="11">
-        <v>0</v>
-      </c>
-      <c r="P8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>0</v>
-      </c>
-      <c r="R8" s="11">
-        <v>0</v>
-      </c>
-      <c r="S8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11">
-        <v>0</v>
-      </c>
-      <c r="P9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>0</v>
-      </c>
-      <c r="R9" s="11">
-        <v>0</v>
-      </c>
-      <c r="S9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
-        <v>0</v>
-      </c>
-      <c r="M10" s="11">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0</v>
-      </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>0</v>
-      </c>
-      <c r="R10" s="11">
-        <v>0</v>
-      </c>
-      <c r="S10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="11">
-        <v>0</v>
-      </c>
-      <c r="S11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="11">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-      <c r="O12" s="11">
-        <v>0</v>
-      </c>
-      <c r="P12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>0</v>
-      </c>
-      <c r="R12" s="11">
-        <v>0</v>
-      </c>
-      <c r="S12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="11">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-      <c r="O13" s="11">
-        <v>0</v>
-      </c>
-      <c r="P13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <v>0</v>
-      </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
-        <v>0</v>
-      </c>
-      <c r="M14" s="11">
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
-      <c r="O14" s="11">
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>0</v>
-      </c>
-      <c r="R14" s="11">
-        <v>0</v>
-      </c>
-      <c r="S14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="11">
-        <v>0</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
-        <v>0</v>
-      </c>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-      <c r="O15" s="11">
-        <v>0</v>
-      </c>
-      <c r="P15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>0</v>
-      </c>
-      <c r="R15" s="11">
-        <v>0</v>
-      </c>
-      <c r="S15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="11">
-        <v>0</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
-        <v>0</v>
-      </c>
-      <c r="M16" s="11">
-        <v>0</v>
-      </c>
-      <c r="N16" s="11">
-        <v>0</v>
-      </c>
-      <c r="O16" s="11">
-        <v>0</v>
-      </c>
-      <c r="P16" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>0</v>
-      </c>
-      <c r="R16" s="11">
-        <v>0</v>
-      </c>
-      <c r="S16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="11">
-        <v>0</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-      <c r="O17" s="11">
-        <v>0</v>
-      </c>
-      <c r="P17" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>0</v>
-      </c>
-      <c r="R17" s="11">
-        <v>0</v>
-      </c>
-      <c r="S17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="11">
-        <v>0</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11">
-        <v>0</v>
-      </c>
-      <c r="M18" s="11">
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
-        <v>0</v>
-      </c>
-      <c r="O18" s="11">
-        <v>0</v>
-      </c>
-      <c r="P18" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>0</v>
-      </c>
-      <c r="R18" s="11">
-        <v>0</v>
-      </c>
-      <c r="S18" s="11">
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
+        <v>0</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>0</v>
+      </c>
+      <c r="R18" s="10">
+        <v>0</v>
+      </c>
+      <c r="S18" s="10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="B2:S18">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">

--- a/ewhr/data/list_of_tables_for_summary.xlsx
+++ b/ewhr/data/list_of_tables_for_summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="169">
   <si>
     <t>fig_id</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Are you sure you do not want to use HBSC data here, they cover 33 countries</t>
   </si>
   <si>
-    <t>I have suggested changed title. The number  for MKD doesn't seem to be included in the figure. Following comment was included, but I am not sure it should be enclosed as it stands. I have made it a foot mote.  Data on male attitudes not available for Georgia, Montenegro, Tajikistan, MKD and Turkey most likely because the question is not asked of males.</t>
-  </si>
-  <si>
     <t>Suggest to change title to Higher income, better health.</t>
   </si>
   <si>
@@ -529,6 +526,15 @@
   </si>
   <si>
     <t>Fig. 10 shows the correlation between  adolescent birth rates and mean years of schooling for women in the Region (30). Generally, the higher the mean years of schooling, the lower the adolescent birth rate</t>
+  </si>
+  <si>
+    <t>http://data.unicef.org/resources/the-state-of-the-world-s-children-report-2015-statistical-tables</t>
+  </si>
+  <si>
+    <t>Accessed 12 August 2015</t>
+  </si>
+  <si>
+    <t>GGA: I double-checked against the data from UNICEF and the original was correct. Not sure where your handwritten numbers came from.</t>
   </si>
 </sst>
 </file>
@@ -1568,16 +1574,16 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N19"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="81.5" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="4" customWidth="1"/>
+    <col min="4" max="4" width="81.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="13" style="4" customWidth="1"/>
     <col min="7" max="7" width="82.33203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="4" customWidth="1"/>
@@ -1595,7 +1601,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1613,7 +1619,7 @@
         <v>68</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>67</v>
@@ -1628,10 +1634,10 @@
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>6</v>
@@ -1649,7 +1655,7 @@
         <v>74</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1669,13 +1675,13 @@
         <v>10</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H2" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>60</v>
@@ -1713,26 +1719,26 @@
         <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="3">
         <v>11</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="L3" s="3">
         <v>780</v>
@@ -1823,7 +1829,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" s="5" t="b">
         <v>1</v>
@@ -1832,7 +1838,7 @@
         <v>66</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L5" s="3">
         <v>960</v>
@@ -1870,13 +1876,13 @@
         <v>21</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H6" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>62</v>
@@ -1920,10 +1926,10 @@
         <v>24</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="4" t="b">
         <v>0</v>
@@ -1947,7 +1953,7 @@
         <v>19</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>20</v>
@@ -1961,17 +1967,17 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="3">
         <v>32</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H8" s="4" t="b">
         <v>0</v>
@@ -1980,10 +1986,10 @@
         <v>66</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="L8" s="3">
         <v>780</v>
@@ -2015,13 +2021,13 @@
         <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" s="3">
         <v>39</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="5" t="b">
@@ -2031,7 +2037,7 @@
         <v>66</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L9" s="3">
         <v>780</v>
@@ -2043,7 +2049,7 @@
         <v>9999</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>22</v>
@@ -2063,7 +2069,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="3">
         <v>41</v>
@@ -2107,7 +2113,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -2121,7 +2127,7 @@
         <v>66</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L11" s="3">
         <v>780</v>
@@ -2136,7 +2142,7 @@
         <v>26</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>27</v>
@@ -2156,25 +2162,25 @@
         <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="3">
         <v>56</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H12" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L12" s="3">
         <v>780</v>
@@ -2215,7 +2221,7 @@
         <v>69</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H13" s="5" t="b">
         <v>1</v>
@@ -2236,16 +2242,16 @@
         <v>9999</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -2259,13 +2265,13 @@
         <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="3">
         <v>63</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="4" t="b">
         <v>0</v>
@@ -2274,7 +2280,7 @@
         <v>66</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L14" s="3">
         <v>780</v>
@@ -2295,7 +2301,7 @@
         <v>33</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -2315,7 +2321,7 @@
         <v>73</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H15" s="5" t="b">
         <v>1</v>
@@ -2336,10 +2342,10 @@
         <v>9999</v>
       </c>
       <c r="O15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>34</v>
@@ -2353,10 +2359,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="E16" s="3">
         <v>78</v>
@@ -2365,13 +2371,13 @@
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L16" s="3">
         <v>780</v>
@@ -2384,7 +2390,7 @@
       </c>
       <c r="O16" s="3"/>
       <c r="S16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -2398,22 +2404,22 @@
         <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" s="3">
         <v>89</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H17" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>62</v>
@@ -2448,13 +2454,13 @@
         <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18" s="3">
         <v>93</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H18" s="4" t="b">
         <v>0</v>
@@ -2463,7 +2469,7 @@
         <v>66</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L18" s="3">
         <v>780</v>
@@ -2484,7 +2490,7 @@
         <v>37</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -2498,13 +2504,13 @@
         <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" s="3">
         <v>97</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H19" s="4" t="b">
         <v>0</v>
@@ -2534,7 +2540,7 @@
         <v>25</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -2542,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2550,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2566,7 +2572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:N19"/>
     </sheetView>
   </sheetViews>
@@ -2594,7 +2600,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2612,7 +2618,7 @@
         <v>68</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>67</v>
@@ -2627,10 +2633,10 @@
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>6</v>
@@ -2648,7 +2654,7 @@
         <v>74</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2668,13 +2674,13 @@
         <v>2</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H2" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>60</v>
@@ -2712,26 +2718,26 @@
         <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H3" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="L3" s="3">
         <v>780</v>
@@ -2752,7 +2758,7 @@
         <v>14</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -2802,7 +2808,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -2822,7 +2828,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" s="5" t="b">
         <v>1</v>
@@ -2831,7 +2837,7 @@
         <v>66</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L5" s="3">
         <v>960</v>
@@ -2869,13 +2875,13 @@
         <v>3</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H6" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>62</v>
@@ -2916,10 +2922,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="4" t="b">
         <v>0</v>
@@ -2943,7 +2949,7 @@
         <v>19</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>20</v>
@@ -2957,17 +2963,17 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H8" s="4" t="b">
         <v>0</v>
@@ -2976,10 +2982,10 @@
         <v>66</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="L8" s="3">
         <v>780</v>
@@ -3000,7 +3006,7 @@
         <v>21</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -3014,13 +3020,13 @@
         <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" s="3">
         <v>6</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="5" t="b">
@@ -3030,7 +3036,7 @@
         <v>66</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L9" s="3">
         <v>780</v>
@@ -3042,7 +3048,7 @@
         <v>9999</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>22</v>
@@ -3051,7 +3057,7 @@
         <v>23</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -3065,7 +3071,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -3098,7 +3104,7 @@
         <v>25</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -3112,7 +3118,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3">
         <v>9</v>
@@ -3126,7 +3132,7 @@
         <v>66</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L11" s="3">
         <v>780</v>
@@ -3141,13 +3147,13 @@
         <v>26</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -3161,25 +3167,25 @@
         <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="3">
         <v>8</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H12" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L12" s="3">
         <v>780</v>
@@ -3220,7 +3226,7 @@
         <v>69</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H13" s="5" t="b">
         <v>1</v>
@@ -3241,16 +3247,16 @@
         <v>9999</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -3264,13 +3270,13 @@
         <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="3">
         <v>11</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="4" t="b">
         <v>0</v>
@@ -3279,7 +3285,7 @@
         <v>66</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L14" s="3">
         <v>780</v>
@@ -3300,7 +3306,7 @@
         <v>33</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -3320,7 +3326,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H15" s="5" t="b">
         <v>1</v>
@@ -3341,10 +3347,10 @@
         <v>9999</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>34</v>
@@ -3358,10 +3364,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="E16" s="3">
         <v>12</v>
@@ -3370,13 +3376,13 @@
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L16" s="3">
         <v>780</v>
@@ -3389,7 +3395,7 @@
       </c>
       <c r="O16" s="3"/>
       <c r="S16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -3403,22 +3409,22 @@
         <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" s="3">
         <v>13</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H17" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>62</v>
@@ -3442,7 +3448,7 @@
         <v>33</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -3456,13 +3462,13 @@
         <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18" s="3">
         <v>14</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H18" s="4" t="b">
         <v>0</v>
@@ -3471,7 +3477,7 @@
         <v>66</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L18" s="3">
         <v>780</v>
@@ -3504,13 +3510,13 @@
         <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" s="3">
         <v>13</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H19" s="4" t="b">
         <v>0</v>
@@ -3540,7 +3546,7 @@
         <v>25</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -3548,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -3556,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3573,7 +3579,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3600,7 +3606,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -3618,7 +3624,7 @@
         <v>68</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>67</v>
@@ -3633,10 +3639,10 @@
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>6</v>
@@ -3654,7 +3660,7 @@
         <v>74</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -4578,11 +4584,11 @@
       </c>
       <c r="P13" t="str">
         <f>IF(Sheet1!P13&lt;&gt;vbr_edits!P13,vbr_edits!P13,"")</f>
-        <v/>
+        <v>http://www.data.unicef.org/corecode/uploads/document6/uploaded_pdfs/corecode/SOWC_2015_Summary_and_Tables-final_214.pdf</v>
       </c>
       <c r="Q13" t="str">
         <f>IF(Sheet1!Q13&lt;&gt;vbr_edits!Q13,vbr_edits!Q13,"")</f>
-        <v/>
+        <v>Accessed 31 May 2015</v>
       </c>
       <c r="R13" t="str">
         <f>IF(Sheet1!R13&lt;&gt;vbr_edits!R13,vbr_edits!R13,"")</f>
@@ -5621,7 +5627,7 @@
     </row>
     <row r="2" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
@@ -5680,7 +5686,7 @@
     </row>
     <row r="3" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
@@ -5739,7 +5745,7 @@
     </row>
     <row r="4" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
@@ -5798,7 +5804,7 @@
     </row>
     <row r="5" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="10">
         <v>0</v>
@@ -5857,7 +5863,7 @@
     </row>
     <row r="6" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
@@ -5916,7 +5922,7 @@
     </row>
     <row r="7" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
@@ -5975,7 +5981,7 @@
     </row>
     <row r="8" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="10">
         <v>0</v>
@@ -6034,7 +6040,7 @@
     </row>
     <row r="9" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="10">
         <v>0</v>
@@ -6093,7 +6099,7 @@
     </row>
     <row r="10" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="10">
         <v>0</v>
@@ -6152,7 +6158,7 @@
     </row>
     <row r="11" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
@@ -6211,7 +6217,7 @@
     </row>
     <row r="12" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="10">
         <v>0</v>
@@ -6270,7 +6276,7 @@
     </row>
     <row r="13" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="10">
         <v>0</v>
@@ -6329,7 +6335,7 @@
     </row>
     <row r="14" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="10">
         <v>0</v>
@@ -6388,7 +6394,7 @@
     </row>
     <row r="15" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="10">
         <v>0</v>
@@ -6447,7 +6453,7 @@
     </row>
     <row r="16" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="10">
         <v>0</v>
@@ -6506,7 +6512,7 @@
     </row>
     <row r="17" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="10">
         <v>0</v>
@@ -6565,7 +6571,7 @@
     </row>
     <row r="18" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="10">
         <v>0</v>
